--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/作业帮/运维平台/成本度量/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/blog/niean.github.io/images/20201118/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="厂商对账" sheetId="2" r:id="rId1"/>
+    <sheet name="财务流程" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -321,12 +322,1064 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>主R</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <rPh sb="0" eb="1">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估</t>
+    <rPh sb="0" eb="1">
+      <t>yu'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确</t>
+    <rPh sb="0" eb="1">
+      <t>zhun'que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入NC</t>
+    <rPh sb="0" eb="1">
+      <t>lu'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并报表</t>
+    <rPh sb="0" eb="1">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+3, T+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事项</t>
+    <rPh sb="0" eb="1">
+      <t>shi'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供应付、用量两组预估数据</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong'liang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liang'zu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供应付、用量两组准确数据</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong'liang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liang'zu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhun'que</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将计提数据录入用友NC</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'ti</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成IT资产报表</t>
+    <rPh sb="0" eb="1">
+      <t>sehgn'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'chan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表会用到业务分摊比例，且包含了滚动差额</t>
+    <rPh sb="0" eb="1">
+      <t>bao'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong'dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bao'han'le</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gun'dong'cha'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成报告</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数，做预算分析</t>
+    <rPh sb="0" eb="1">
+      <t>qu'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入NC的数据是计提除以1.06(扣税点)</t>
+    <rPh sb="0" eb="1">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu'yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关账，生成IT资产的业务分摊报表</t>
+    <rPh sb="3" eb="4">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'chan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务也有预算单元的说法，如产研就是一个预单</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan'yuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shuo'fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi'yi'ge</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yu'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件</t>
+    <rPh sb="0" eb="1">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'jina</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件给预算负责人+主管联创</t>
+    <rPh sb="0" eb="1">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhu'guan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lian'chuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做账流程:</t>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 计提</t>
+    <rPh sb="3" eb="4">
+      <t>ji'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 做账</t>
+    <rPh sb="3" eb="4">
+      <t>zuo'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 出数</t>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 沟通</t>
+    <rPh sb="3" eb="4">
+      <t>gou'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">支付流程: </t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 出账</t>
+    <rPh sb="3" eb="4">
+      <t>chu'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供发票</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 支付</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云厂商提供发票</t>
+    <rPh sb="0" eb="1">
+      <t>yun'chang'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa'piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度预算占用</t>
+    <rPh sb="0" eb="1">
+      <t>yue'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度预算占用</t>
+    <rPh sb="0" eb="1">
+      <t>nian'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据发票费用，提交OA占用上月预算</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'piao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fei'yong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细分析</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin+预算负责人</t>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务约预算负责人、详细分析成本预算</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无严格时间要求</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yan'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠债还钱，M+1的时效性</t>
+    <rPh sb="0" eb="1">
+      <t>qian'zhai'huan'qian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'xiao'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度预算过期后全部作废，所以12月必须提前报</t>
+    <rPh sb="0" eb="1">
+      <t>nian'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zuo'fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>suo'yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bi'xu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年12月</t>
+    <rPh sb="0" eb="1">
+      <t>mei'nian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批</t>
+    <rPh sb="0" eb="1">
+      <t>shen'pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款审批流</t>
+    <rPh sb="0" eb="1">
+      <t>fu'kuan'shen'pi'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正付钱</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 预算占用</t>
+    <rPh sb="3" eb="4">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将月度新增负债、分摊给各预算单元，结合预算、产出成本预算分析报告</t>
+    <rPh sb="17" eb="18">
+      <t>jie'he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司流程规定，先占用、后支付，不占用就无法支付</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui'ding</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian'zhan'yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou'fu'kuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'zhan'yong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wu'fa</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi'f'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打款给云厂商</t>
+    <rPh sb="0" eb="1">
+      <t>da'kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chang'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据OP预提，提交OA占用年度剩余预算</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nian'du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付费用以发票为唯一标准，不参考计提</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa'piao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei'yi'biao'zhun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'can'kao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成本预测: </t>
+    <rPh sb="0" eb="1">
+      <t>hceng'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin根据预算、账期等因素，预估接下来几个月的新增负债</t>
+    <rPh sb="3" eb="4">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhang'qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yin'su</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jie'xia'lai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji'ge'yue</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fu'zhai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它信息</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合IT资产、人力、营销等负债数据</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'chan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying'xiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu'zhai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动差额，主要由 历史上的支付和计提差额累加而成，同时也会有少量人工调账</t>
+    <rPh sb="0" eb="1">
+      <t>gun'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'e</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'yao'you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji'ti</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cha'e</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lei'jia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>er'cheng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ye'hui'you</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shao'liang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ren'gong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>tiao'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单悦(Ops)</t>
+    <rPh sb="0" eb="1">
+      <t>shan'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin分BP，负责不同的预单，如刘晔老师负责产研、教辅</t>
+    <rPh sb="3" eb="4">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu'dan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>liu'ye</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lao'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jiao'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin按固定周期，提醒业务、催收应收款项</t>
+    <rPh sb="3" eb="4">
+      <t>an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhou'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ying'shou'zhang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个预算单元都有预算接口人，如产研预算接口是单悦</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge'yue'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan'yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu'suan'jie'kou'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie'kou'shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shan'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打款周期不固定，正常情况下会按照账期付款</t>
+    <rPh sb="0" eb="1">
+      <t>da'kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'gu'ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量数据用于和罗老师沟通</t>
+    <rPh sb="0" eb="1">
+      <t>yong'linag</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong'yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo'lao'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gou'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,13 +1437,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -440,15 +1508,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -749,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,21 +1836,21 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
@@ -988,4 +2061,358 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="厂商对账" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -1371,6 +1371,52 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>gou'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin一般不做数据回溯，而是使用滚动差额、在半年或一年内卡齐总数</t>
+    <rPh sb="3" eb="4">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui'su</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>er'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gun'dong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cha'e</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban'nian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'nian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ka'qi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zong'shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1485,8 +1531,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1524,7 +1578,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1536,6 +1590,10 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1546,6 +1604,10 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1822,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2065,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2404,6 +2466,11 @@
         <v>86</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:A5"/>

--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="厂商对账" sheetId="2" r:id="rId1"/>
@@ -417,85 +417,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提供应付、用量两组预估数据</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ying'fu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yong'liang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>liang'zu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yu'gu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供应付、用量两组准确数据</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ying'fu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yong'liang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>liang'zu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhun'que</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将计提数据录入用友NC</t>
-    <rPh sb="0" eb="1">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji'ti</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lu'ru</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yong'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成IT资产报表</t>
-    <rPh sb="0" eb="1">
-      <t>sehgn'cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zi'chan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bao'biao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,47 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取数，做预算分析</t>
-    <rPh sb="0" eb="1">
-      <t>qu'shu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fen'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入NC的数据是计提除以1.06(扣税点)</t>
-    <rPh sb="0" eb="1">
-      <t>lu'ru</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ji'ti</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chu'yi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关账，生成IT资产的业务分摊报表</t>
     <rPh sb="3" eb="4">
       <t>sheng'cheng</t>
@@ -604,293 +487,256 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务也有预算单元的说法，如产研就是一个预单</t>
+    <t>发送邮件</t>
+    <rPh sb="0" eb="1">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'jina</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件给预算负责人+主管联创</t>
+    <rPh sb="0" eb="1">
+      <t>fa'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhu'guan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lian'chuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做账流程:</t>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 计提</t>
+    <rPh sb="3" eb="4">
+      <t>ji'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 做账</t>
+    <rPh sb="3" eb="4">
+      <t>zuo'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 出数</t>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 沟通</t>
+    <rPh sb="3" eb="4">
+      <t>gou'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">支付流程: </t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 出账</t>
+    <rPh sb="3" eb="4">
+      <t>chu'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供发票</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 支付</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云厂商提供发票</t>
+    <rPh sb="0" eb="1">
+      <t>yun'chang'shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa'piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度预算占用</t>
+    <rPh sb="0" eb="1">
+      <t>yue'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度预算占用</t>
+    <rPh sb="0" eb="1">
+      <t>nian'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据发票费用，提交OA占用上月预算</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa'piao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fei'yong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhan'yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细分析</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin+预算负责人</t>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务约预算负责人、详细分析成本预算</t>
     <rPh sb="0" eb="1">
       <t>cai'wu</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ye'you</t>
-    </rPh>
-    <rPh sb="4" eb="5">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>yu'suan</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>dan'yuan</t>
+    <rPh sb="5" eb="6">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无严格时间要求</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yan'ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yao'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠债还钱，M+1的时效性</t>
+    <rPh sb="0" eb="1">
+      <t>qian'zhai'huan'qian</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>de</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>shuo'fa</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shi'yi'ge</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yu'dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件</t>
-    <rPh sb="0" eb="1">
-      <t>fa'song</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'jina</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件给预算负责人+主管联创</t>
-    <rPh sb="0" eb="1">
-      <t>fa'song</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fu'ze'ren</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhu'guan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>lian'chuang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做账流程:</t>
-    <rPh sb="2" eb="3">
-      <t>liu'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤</t>
-    <rPh sb="0" eb="1">
-      <t>bu'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 计提</t>
-    <rPh sb="3" eb="4">
-      <t>ji'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 做账</t>
-    <rPh sb="3" eb="4">
-      <t>zuo'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 出数</t>
-    <rPh sb="3" eb="4">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 沟通</t>
-    <rPh sb="3" eb="4">
-      <t>gou'tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">支付流程: </t>
-    <rPh sb="0" eb="1">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 出账</t>
-    <rPh sb="3" eb="4">
-      <t>chu'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供发票</t>
-    <rPh sb="0" eb="1">
-      <t>ti'gong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fa'piao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 支付</t>
-    <rPh sb="3" eb="4">
-      <t>zhi'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云厂商提供发票</t>
-    <rPh sb="0" eb="1">
-      <t>yun'chang'shang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ti'gong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fa'piao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月度预算占用</t>
-    <rPh sb="0" eb="1">
-      <t>yue'du</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhan'yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度预算占用</t>
-    <rPh sb="0" eb="1">
-      <t>nian'du</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhan'yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据发票费用，提交OA占用上月预算</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fa'piao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fei'yong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhan'yong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细分析</t>
-    <rPh sb="0" eb="1">
-      <t>xiang'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fin+预算负责人</t>
-    <rPh sb="4" eb="5">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fu'ze'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务约预算负责人、详细分析成本预算</t>
-    <rPh sb="0" eb="1">
-      <t>cai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fu'ze'ren</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xiang'xi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fen'xi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>cheng'ben</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无严格时间要求</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yan'ge</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yao'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠债还钱，M+1的时效性</t>
-    <rPh sb="0" eb="1">
-      <t>qian'zhai'huan'qian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
       <t>shi'xiao'xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,16 +809,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>fu'qian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 预算占用</t>
-    <rPh sb="3" eb="4">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhan'yong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1141,9 +977,305 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整合IT资产、人力、营销等负债数据</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'he</t>
+    <t>滚动差额，主要由 历史上的支付和计提差额累加而成，同时也会有少量人工调账</t>
+    <rPh sb="0" eb="1">
+      <t>gun'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'e</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'yao'you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji'ti</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cha'e</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>lei'jia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>er'cheng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ye'hui'you</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shao'liang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ren'gong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>tiao'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单悦(Ops)</t>
+    <rPh sb="0" eb="1">
+      <t>shan'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin分BP，负责不同的预单，如刘晔老师负责产研、教辅</t>
+    <rPh sb="3" eb="4">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yu'dan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>liu'ye</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lao'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fu'ze</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jiao'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin按固定周期，提醒业务、催收应收款项</t>
+    <rPh sb="3" eb="4">
+      <t>an</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhou'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ying'shou'zhang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个预算单元都有预算接口人，如产研预算接口是单悦</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ge'yue'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan'yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou'you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu'suan'jie'kou'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie'kou'shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shan'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打款周期不固定，正常情况下会按照账期付款</t>
+    <rPh sb="0" eb="1">
+      <t>da'kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'gu'ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fin一般不做数据回溯，而是使用滚动差额、在半年或一年内卡齐总数</t>
+    <rPh sb="3" eb="4">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui'su</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>er'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gun'dong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cha'e</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban'nian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'nian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ka'qi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zong'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供应付预估数据</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入NC的数据是计提除以1.06扣税点，Numerical Control</t>
+    <rPh sb="0" eb="1">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu'yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将计提数据录入财务NC系统</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji'ti</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并IT资产、人力、营销等负债数据</t>
+    <rPh sb="0" eb="1">
+      <t>he'bing</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>zi'chan</t>
@@ -1166,257 +1298,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>滚动差额，主要由 历史上的支付和计提差额累加而成，同时也会有少量人工调账</t>
-    <rPh sb="0" eb="1">
-      <t>gun'dong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cha'e</t>
+    <t>取数，做预算成本分析</t>
+    <rPh sb="0" eb="1">
+      <t>qu'shu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务也有预算单元的说法，更业务视角，如直播、答疑</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan'yuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shuo'fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'jiao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi'bo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>da'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做IT分摊报表</t>
+    <rPh sb="0" eb="1">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'tan</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>zhu'yao'you</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>li'shi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shang</t>
+      <t>bao'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 占用</t>
+    <rPh sb="3" eb="4">
+      <t>zhan'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供应付、用量&amp;分摊比例两组准确数据</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'fu</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhi'fu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>he</t>
+      <t>liang'zu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhun'que</t>
     </rPh>
     <rPh sb="16" eb="17">
-      <t>ji'ti</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>cha'e</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>lei'jia</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>er'cheng</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>tong'shi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ye'hui'you</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>shao'liang</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ren'gong</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>tiao'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单悦(Ops)</t>
-    <rPh sb="0" eb="1">
-      <t>shan'yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fin分BP，负责不同的预单，如刘晔老师负责产研、教辅</t>
-    <rPh sb="3" eb="4">
-      <t>fen</t>
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量&amp;分摊比例用于业务分摊</t>
+    <rPh sb="0" eb="1">
+      <t>yong'linag</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi'li</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>fu'ze</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yu'dan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>liu'ye</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>lao'shi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fu'ze</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>jiao'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fin按固定周期，提醒业务、催收应收款项</t>
-    <rPh sb="3" eb="4">
-      <t>an</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gu'ding</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhou'qi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ti'xing</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ying'shou'zhang</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xiang'mu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个预算单元都有预算接口人，如产研预算接口是单悦</t>
-    <rPh sb="0" eb="1">
-      <t>mei'ge'yue'suan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dan'yuan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dou'you</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yu'suan'jie'kou'ren</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ru</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jie'kou'shi</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shan'yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打款周期不固定，正常情况下会按照账期付款</t>
-    <rPh sb="0" eb="1">
-      <t>da'kuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhou'qi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'gu'ding</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>qing'kuang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用量数据用于和罗老师沟通</t>
-    <rPh sb="0" eb="1">
-      <t>yong'linag</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
       <t>yong'yu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>luo'lao'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>gou'tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fin一般不做数据回溯，而是使用滚动差额、在半年或一年内卡齐总数</t>
-    <rPh sb="3" eb="4">
-      <t>yi'ban</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bu'zuo</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hui'su</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>er'shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shi'yong</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>gun'dong</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>cha'e</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ban'nian</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>huo</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yi'nian</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ka'qi</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zong'shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1884,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -2129,31 +2120,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
@@ -2168,27 +2159,24 @@
         <v>25</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2197,18 +2185,21 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
@@ -2220,16 +2211,16 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -2238,10 +2229,10 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2256,15 +2247,15 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2273,16 +2264,16 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -2291,40 +2282,40 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>38</v>
@@ -2339,73 +2330,73 @@
         <v>25</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -2414,13 +2405,13 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -2429,46 +2420,46 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -2120,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="厂商对账" sheetId="2" r:id="rId1"/>
     <sheet name="财务流程" sheetId="3" r:id="rId2"/>
+    <sheet name="预算流程" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="166">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -1411,11 +1412,961 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>阶段</t>
+    <rPh sb="0" eb="1">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时(自然日)</t>
+    <rPh sb="0" eb="1">
+      <t>hao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'ran'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司启动会</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'dong'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启动会</t>
+    <rPh sb="0" eb="1">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi'dong'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发启动邮件</t>
+    <rPh sb="0" eb="1">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi'dng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <rPh sb="0" eb="1">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <rPh sb="0" eb="1">
+      <t>can'yu'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维准备</t>
+    <rPh sb="0" eb="1">
+      <t>yun'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhun'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸清战略</t>
+    <rPh sb="0" eb="1">
+      <t>mo'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhan'lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐排期</t>
+    <rPh sb="0" eb="1">
+      <t>dui'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对基线</t>
+    <rPh sb="0" eb="1">
+      <t>h'dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新预算接口人</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放预算平台</t>
+    <rPh sb="0" eb="1">
+      <t>kai'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事项补充说明</t>
+    <rPh sb="0" eb="1">
+      <t>shi'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向协同</t>
+    <rPh sb="0" eb="1">
+      <t>heng'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、大数据</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研启动会</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'dong'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发启动邮件</t>
+    <rPh sb="0" eb="1">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对用户文档</t>
+    <rPh sb="0" eb="1">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立沟通渠道</t>
+    <rPh sb="0" eb="1">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改接口人</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算接口人、T-1</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算接口人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答疑，补全授权</t>
+    <rPh sb="0" eb="1">
+      <t>da'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu'quan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研预算提报</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商分</t>
+    <rPh sb="0" eb="1">
+      <t>shang'fne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品、预算接口人</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商分出预测</t>
+    <rPh sb="0" eb="1">
+      <t>shang'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发做预算</t>
+    <rPh sb="0" eb="1">
+      <t>yan'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发录入预算</t>
+    <rPh sb="0" eb="1">
+      <t>yan'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭预算平台</t>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新业务分摊比例</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bi'il</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-1(FinOps主管)</t>
+    <rPh sb="10" eb="11">
+      <t>zhu'guan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提报预算给财务</t>
+    <rPh sb="0" eb="1">
+      <t>ti'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研预算合并</t>
+    <rPh sb="4" eb="5">
+      <t>he'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司预算分人力、资源、定制产品等，本文重点关注资源预算</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dign'zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ben'wen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhong'dian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu'sua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研核对预算</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维主管核对预算</t>
+    <rPh sb="0" eb="1">
+      <t>yun'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'guan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>y'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务合并预算</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研预算定稿</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团预算合并</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团核对预算</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、CTO</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团预算定稿</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团预算生效</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研预算录入财务系统</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研预算生效</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定粗略的预算目标，同步给预算接口人、以减少预算调整轮次</t>
+    <rPh sb="10" eb="11">
+      <t>tong'bu'gei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lun'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤: 拟定列表 → T1确认 → 更新元数据 → 小窗通知接口人</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线报表使用频率较低，要提前验一下可用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户文档使用频率较低，要提前更新下内容、确保足够新</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pin'lv</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>geng'xin'xia</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>que'bao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zu'gou'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查模板、科目名称、预单，清理重复记录，开放时间窗</t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'mu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming'chneg</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu'dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qing'li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kai'fang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi'jian'chuang'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟财务、大数据等单位同步排期节奏</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan'wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie'zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-1指定调整预算接口人</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强依赖，必须第一步完成</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'yi'lai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi'xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'yi'bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算用量 = Fun(业务指标) + ∑(技术优化)</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留2-3个工作日</t>
+    <rPh sb="0" eb="1">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'zuo'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备全局数据，包括定价、基线、部门&amp;科目分析等</t>
+    <rPh sb="9" eb="10">
+      <t>ding'jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji'xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fen'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维汇总预算</t>
+    <rPh sb="0" eb="1">
+      <t>yun'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'zong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>y'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别明显问题，推动接口人调整</t>
+    <rPh sb="0" eb="1">
+      <t>shi'bie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按业务方向汇总预算</t>
+    <rPh sb="0" eb="1">
+      <t>an'ye'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui'zong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO拉T-1逐一核对预算，会产生多轮次调整</t>
+    <rPh sb="3" eb="4">
+      <t>la</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>duo'lun'ci</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主R财务向CEO汇报预算，会产生多轮次调整</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui'bao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走流程、存档，CEO审批后生效</t>
+    <rPh sb="0" eb="1">
+      <t>zou'liu'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cun'dang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sheng'pi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sheng'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间(举例)</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间(举例)</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1484,7 +2435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1497,8 +2448,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1516,6 +2479,74 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1553,7 +2584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1567,6 +2598,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -2120,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2473,4 +3544,1340 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="29">
+        <v>44848</v>
+      </c>
+      <c r="G3" s="29">
+        <v>44848</v>
+      </c>
+      <c r="H3" s="26">
+        <f>IF(G3&lt;&gt;"",G3-F3+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="30">
+        <v>44848</v>
+      </c>
+      <c r="G4" s="30">
+        <v>44848</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" ref="H4:H69" si="0">IF(G4&lt;&gt;"",G4-F4+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="29">
+        <v>44849</v>
+      </c>
+      <c r="G5" s="29">
+        <v>44849</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="31">
+        <v>44849</v>
+      </c>
+      <c r="G6" s="31">
+        <v>44849</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="31">
+        <v>44850</v>
+      </c>
+      <c r="G7" s="31">
+        <v>44850</v>
+      </c>
+      <c r="H7" s="28">
+        <f>IF(G7&lt;&gt;"",G7-F7+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="31">
+        <v>44850</v>
+      </c>
+      <c r="G8" s="31">
+        <v>44850</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="31">
+        <v>44850</v>
+      </c>
+      <c r="G9" s="31">
+        <v>44850</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="31">
+        <v>44851</v>
+      </c>
+      <c r="G10" s="31">
+        <v>44851</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="30">
+        <v>44851</v>
+      </c>
+      <c r="G11" s="30">
+        <v>44851</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="29">
+        <v>44851</v>
+      </c>
+      <c r="G12" s="29">
+        <v>44851</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="31">
+        <v>44851</v>
+      </c>
+      <c r="G13" s="31">
+        <v>44851</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="30">
+        <v>44851</v>
+      </c>
+      <c r="G14" s="30">
+        <v>44851</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="29">
+        <v>44852</v>
+      </c>
+      <c r="G15" s="29">
+        <v>44854</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="31">
+        <v>44855</v>
+      </c>
+      <c r="G16" s="31">
+        <v>44858</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="31">
+        <v>44859</v>
+      </c>
+      <c r="G17" s="31">
+        <v>44859</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="31">
+        <v>44859</v>
+      </c>
+      <c r="G18" s="31">
+        <v>44859</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="31">
+        <v>44859</v>
+      </c>
+      <c r="G19" s="31">
+        <v>44859</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="31">
+        <v>44860</v>
+      </c>
+      <c r="G20" s="31">
+        <v>44861</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="31">
+        <v>44862</v>
+      </c>
+      <c r="G21" s="31">
+        <v>44864</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="30">
+        <v>44865</v>
+      </c>
+      <c r="G22" s="30">
+        <v>44865</v>
+      </c>
+      <c r="H22" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="29">
+        <v>44866</v>
+      </c>
+      <c r="G23" s="29">
+        <v>44885</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="31">
+        <v>44885</v>
+      </c>
+      <c r="G24" s="31">
+        <v>44885</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="30">
+        <v>44885</v>
+      </c>
+      <c r="G25" s="30">
+        <v>44885</v>
+      </c>
+      <c r="H25" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="29">
+        <v>44887</v>
+      </c>
+      <c r="G26" s="29">
+        <v>44892</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="31">
+        <v>44893</v>
+      </c>
+      <c r="G27" s="31">
+        <v>44926</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="30">
+        <v>44926</v>
+      </c>
+      <c r="G28" s="30">
+        <v>44926</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="29">
+        <v>44927</v>
+      </c>
+      <c r="G29" s="29">
+        <v>44927</v>
+      </c>
+      <c r="H29" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="30">
+        <v>44927</v>
+      </c>
+      <c r="G30" s="30">
+        <v>44927</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H70" t="str">
+        <f t="shared" ref="H70:H116" si="1">IF(G70&lt;&gt;"",G70-F70+1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -15,7 +15,8 @@
     <sheet name="厂商对账" sheetId="2" r:id="rId1"/>
     <sheet name="财务流程" sheetId="3" r:id="rId2"/>
     <sheet name="预算流程" sheetId="4" r:id="rId3"/>
-    <sheet name="分摊账单" sheetId="5" r:id="rId4"/>
+    <sheet name="多云账单" sheetId="6" r:id="rId4"/>
+    <sheet name="分摊账单" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="260">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -2548,6 +2549,380 @@
   </si>
   <si>
     <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子产品</t>
+    <rPh sb="0" eb="1">
+      <t>zi'chan'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费项</t>
+    <rPh sb="0" eb="1">
+      <t>ji'fei'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <rPh sb="0" eb="1">
+      <t>dan'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例ID</t>
+    <rPh sb="0" eb="1">
+      <t>shi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量</t>
+    <rPh sb="0" eb="1">
+      <t>yong'linag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费类型</t>
+    <rPh sb="0" eb="1">
+      <t>ji'fei'lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里主账号</t>
+    <rPh sb="0" eb="1">
+      <t>a'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'zhang'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包年包月</t>
+    <rPh sb="0" eb="1">
+      <t>bao'nian'bao'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券支付</t>
+    <rPh sb="0" eb="1">
+      <t>dai'jin'quan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金支付</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务器ECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecs.c6e.4xlarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续费</t>
+    <rPh sb="0" eb="1">
+      <t>xu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后付费</t>
+    <rPh sb="0" eb="1">
+      <t>hou'fu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽</t>
+    <rPh sb="0" eb="1">
+      <t>dai'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享带宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台月</t>
+    <rPh sb="0" eb="1">
+      <t>tai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账期</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i-0xi0fytrn6q280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i-0xi9qm4rd2t0c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx-smart.jtzy.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbwp-2ze3mznsf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb-2zeu8aontacp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj-f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费项</t>
+    <rPh sb="0" eb="1">
+      <t>ji'fei'xiag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sg-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <rPh sb="0" eb="1">
+      <t>ke'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子科目</t>
+    <rPh sb="0" eb="1">
+      <t>zi'ke'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU在线业务</t>
+    <rPh sb="3" eb="4">
+      <t>zai'xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽RTC</t>
+    <rPh sb="0" eb="1">
+      <t>dai'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账标签</t>
+    <rPh sb="0" eb="1">
+      <t>fen'zhang'biao'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务B</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务C</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一模型</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同计费</t>
+    <rPh sb="0" eb="1">
+      <t>he'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同计费-其它</t>
+    <rPh sb="0" eb="1">
+      <t>he'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'fei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi'ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内</t>
+    <rPh sb="0" eb="1">
+      <t>guo'nei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际</t>
+    <rPh sb="0" eb="1">
+      <t>guo'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核月</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICSP计费</t>
+    <rPh sb="4" eb="5">
+      <t>ji'fei</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2635,7 +3010,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2669,6 +3044,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,7 +3195,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2839,6 +3238,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2854,10 +3260,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3193,22 +3649,22 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3505,7 +3961,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
@@ -3522,7 +3978,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3540,7 +3996,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
@@ -3560,7 +4016,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>81</v>
       </c>
@@ -3578,7 +4034,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3593,7 +4049,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
@@ -3613,7 +4069,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -3696,7 +4152,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="36" t="s">
         <v>82</v>
       </c>
       <c r="B17" t="s">
@@ -3716,7 +4172,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -3734,7 +4190,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B19" t="s">
@@ -3751,7 +4207,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="36"/>
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -3878,7 +4334,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3907,7 +4363,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="33"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="9" t="s">
         <v>89</v>
       </c>
@@ -3932,7 +4388,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3959,7 +4415,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="11" t="s">
         <v>96</v>
       </c>
@@ -3984,7 +4440,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="11" t="s">
         <v>98</v>
       </c>
@@ -4011,7 +4467,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="11" t="s">
         <v>97</v>
       </c>
@@ -4036,7 +4492,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="11" t="s">
         <v>105</v>
       </c>
@@ -4061,7 +4517,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="34"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="11" t="s">
         <v>99</v>
       </c>
@@ -4086,7 +4542,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="33"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>101</v>
       </c>
@@ -4113,7 +4569,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="37" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4140,7 +4596,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="11" t="s">
         <v>106</v>
       </c>
@@ -4167,7 +4623,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="9" t="s">
         <v>107</v>
       </c>
@@ -4194,7 +4650,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4223,7 +4679,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="11" t="s">
         <v>116</v>
       </c>
@@ -4250,7 +4706,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="11" t="s">
         <v>117</v>
       </c>
@@ -4273,7 +4729,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="11" t="s">
         <v>118</v>
       </c>
@@ -4296,7 +4752,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="11" t="s">
         <v>119</v>
       </c>
@@ -4323,7 +4779,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="11" t="s">
         <v>148</v>
       </c>
@@ -4348,7 +4804,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="11" t="s">
         <v>126</v>
       </c>
@@ -4375,7 +4831,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="33"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="9" t="s">
         <v>121</v>
       </c>
@@ -4400,7 +4856,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -4429,7 +4885,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="11" t="s">
         <v>127</v>
       </c>
@@ -4454,7 +4910,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="9" t="s">
         <v>128</v>
       </c>
@@ -4477,7 +4933,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="37" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -4504,7 +4960,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="34"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="11" t="s">
         <v>131</v>
       </c>
@@ -4531,7 +4987,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="9" t="s">
         <v>133</v>
       </c>
@@ -4556,7 +5012,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="37" t="s">
         <v>134</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -4583,7 +5039,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="9" t="s">
         <v>136</v>
       </c>
@@ -5155,10 +5611,659 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+    </row>
+    <row r="2" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>202301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="30">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="30">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30">
+        <f>I4*J4</f>
+        <v>10000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="30">
+        <v>10</v>
+      </c>
+      <c r="O4" s="30">
+        <f>K4-N4</f>
+        <v>9990</v>
+      </c>
+      <c r="P4" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>245</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="T4" s="30">
+        <v>700</v>
+      </c>
+      <c r="U4" s="30">
+        <v>16</v>
+      </c>
+      <c r="V4" s="30">
+        <f>T4*U4</f>
+        <v>11200</v>
+      </c>
+      <c r="W4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>202301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="30">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="30">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30">
+        <f>I5*J5</f>
+        <v>5000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="30">
+        <v>1</v>
+      </c>
+      <c r="O5" s="30">
+        <f>K5-N5</f>
+        <v>4999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>245</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="T5" s="30">
+        <v>350</v>
+      </c>
+      <c r="U5" s="30">
+        <v>16</v>
+      </c>
+      <c r="V5" s="30">
+        <f t="shared" ref="V5:V9" si="0">T5*U5</f>
+        <v>5600</v>
+      </c>
+      <c r="W5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>202301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="30">
+        <v>2048</v>
+      </c>
+      <c r="K6" s="30">
+        <f>I6*J6</f>
+        <v>204.8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>220</v>
+      </c>
+      <c r="M6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="30">
+        <f>K6-N6</f>
+        <v>204.8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>244</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="T6" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="U6" s="30">
+        <f>J6</f>
+        <v>2048</v>
+      </c>
+      <c r="V6" s="30">
+        <f t="shared" si="0"/>
+        <v>204.8</v>
+      </c>
+      <c r="W6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>202301</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0</v>
+      </c>
+      <c r="O7" s="30">
+        <f>K7-N7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>244</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="U7" s="30">
+        <f t="shared" ref="U7:U9" si="1">J7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>202301</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="30">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="30">
+        <f>I8*J8</f>
+        <v>800</v>
+      </c>
+      <c r="L8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="30">
+        <v>1</v>
+      </c>
+      <c r="O8" s="30">
+        <f t="shared" ref="O8:O9" si="2">K8-N8</f>
+        <v>799</v>
+      </c>
+      <c r="P8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>246</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="T8" s="30">
+        <v>1</v>
+      </c>
+      <c r="U8" s="30">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="V8" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="W8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>202301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1024</v>
+      </c>
+      <c r="K9" s="30">
+        <f>I9*J9</f>
+        <v>819.2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="30">
+        <v>2</v>
+      </c>
+      <c r="O9" s="30">
+        <f t="shared" si="2"/>
+        <v>817.2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>222</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="T9" s="30">
+        <v>1</v>
+      </c>
+      <c r="U9" s="30">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="V9" s="30">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="W9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5170,34 +6275,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5223,14 +6328,14 @@
       <c r="G2" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="30">
         <v>0.51</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="30">
         <v>50</v>
       </c>
-      <c r="J2" s="35">
-        <f>H2*I2</f>
+      <c r="J2" s="30">
+        <f t="shared" ref="J2:J16" si="0">H2*I2</f>
         <v>25.5</v>
       </c>
     </row>
@@ -5256,14 +6361,14 @@
       <c r="G3" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="30">
         <v>0.01</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="30">
         <v>40</v>
       </c>
-      <c r="J3" s="35">
-        <f>H3*I3</f>
+      <c r="J3" s="30">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -5289,14 +6394,14 @@
       <c r="G4" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="30">
         <v>0.04</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="30">
         <v>100</v>
       </c>
-      <c r="J4" s="35">
-        <f>H4*I4</f>
+      <c r="J4" s="30">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -5322,14 +6427,14 @@
       <c r="G5" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="30">
         <v>0.02</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="30">
         <v>80</v>
       </c>
-      <c r="J5" s="35">
-        <f>H5*I5</f>
+      <c r="J5" s="30">
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
     </row>
@@ -5355,14 +6460,14 @@
       <c r="G6" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="30">
         <v>0.7</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="30">
         <v>2000</v>
       </c>
-      <c r="J6" s="35">
-        <f>H6*I6</f>
+      <c r="J6" s="30">
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
     </row>
@@ -5388,14 +6493,14 @@
       <c r="G7" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="30">
         <v>0.7</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="30">
         <v>0.08</v>
       </c>
-      <c r="J7" s="35">
-        <f>H7*I7</f>
+      <c r="J7" s="30">
+        <f t="shared" si="0"/>
         <v>5.5999999999999994E-2</v>
       </c>
     </row>
@@ -5421,14 +6526,14 @@
       <c r="G8" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="30">
         <v>1.63</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="30">
         <v>0.09</v>
       </c>
-      <c r="J8" s="35">
-        <f>H8*I8</f>
+      <c r="J8" s="30">
+        <f t="shared" si="0"/>
         <v>0.1467</v>
       </c>
     </row>
@@ -5454,14 +6559,14 @@
       <c r="G9" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="30">
         <v>1.63</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="30">
         <v>0.09</v>
       </c>
-      <c r="J9" s="35">
-        <f>H9*I9</f>
+      <c r="J9" s="30">
+        <f t="shared" si="0"/>
         <v>0.1467</v>
       </c>
     </row>
@@ -5487,14 +6592,14 @@
       <c r="G10" t="s">
         <v>170</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="30">
         <v>6.97</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="30">
         <v>0.1</v>
       </c>
-      <c r="J10" s="35">
-        <f>H10*I10</f>
+      <c r="J10" s="30">
+        <f t="shared" si="0"/>
         <v>0.69700000000000006</v>
       </c>
     </row>
@@ -5520,14 +6625,14 @@
       <c r="G11" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="30">
         <v>190.49</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="30">
         <v>1</v>
       </c>
-      <c r="J11" s="35">
-        <f>H11*I11</f>
+      <c r="J11" s="30">
+        <f t="shared" si="0"/>
         <v>190.49</v>
       </c>
     </row>
@@ -5553,14 +6658,14 @@
       <c r="G12" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="30">
         <v>187.34</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="30">
         <v>1</v>
       </c>
-      <c r="J12" s="35">
-        <f>H12*I12</f>
+      <c r="J12" s="30">
+        <f t="shared" si="0"/>
         <v>187.34</v>
       </c>
     </row>
@@ -5586,14 +6691,14 @@
       <c r="G13" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="30">
         <v>21.75</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="30">
         <v>1</v>
       </c>
-      <c r="J13" s="35">
-        <f>H13*I13</f>
+      <c r="J13" s="30">
+        <f t="shared" si="0"/>
         <v>21.75</v>
       </c>
     </row>
@@ -5619,14 +6724,14 @@
       <c r="G14" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="30">
         <v>13.75</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="30">
         <v>1</v>
       </c>
-      <c r="J14" s="35">
-        <f>H14*I14</f>
+      <c r="J14" s="30">
+        <f t="shared" si="0"/>
         <v>13.75</v>
       </c>
     </row>
@@ -5652,14 +6757,14 @@
       <c r="G15" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="30">
         <v>60.07</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="30">
         <v>1</v>
       </c>
-      <c r="J15" s="35">
-        <f>H15*I15</f>
+      <c r="J15" s="30">
+        <f t="shared" si="0"/>
         <v>60.07</v>
       </c>
     </row>
@@ -5685,14 +6790,14 @@
       <c r="G16" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="30">
         <v>50.39</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="30">
         <v>1</v>
       </c>
-      <c r="J16" s="35">
-        <f>H16*I16</f>
+      <c r="J16" s="30">
+        <f t="shared" si="0"/>
         <v>50.39</v>
       </c>
     </row>

--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="厂商对账" sheetId="2" r:id="rId1"/>
-    <sheet name="财务流程" sheetId="3" r:id="rId2"/>
-    <sheet name="预算流程" sheetId="4" r:id="rId3"/>
-    <sheet name="多云账单" sheetId="6" r:id="rId4"/>
+    <sheet name="财务流程" sheetId="3" r:id="rId1"/>
+    <sheet name="预算流程" sheetId="4" r:id="rId2"/>
+    <sheet name="账单模型" sheetId="2" r:id="rId3"/>
+    <sheet name="账单详情" sheetId="6" r:id="rId4"/>
     <sheet name="分摊账单" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="264">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -61,20 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1:产品</t>
-    <rPh sb="3" eb="4">
-      <t>hcan'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L0:账号</t>
-    <rPh sb="3" eb="4">
-      <t>zhang'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退款</t>
     <rPh sb="0" eb="1">
       <t>tui'kuan</t>
@@ -93,23 +79,6 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3:实例</t>
-    <rPh sb="3" eb="4">
-      <t>shi'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4:计费项</t>
-    <rPh sb="3" eb="4">
-      <t>ji'fei'dian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xiang</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2156,76 +2125,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厂商和我方账单对比(空间)</t>
-    <rPh sb="0" eb="1">
-      <t>chang'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wo'fang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhang'dan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dui'bi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>kong'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂商账单环比分析(时间)</t>
-    <rPh sb="0" eb="1">
-      <t>chang'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhang'dan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huan'bi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fen'xi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>费用</t>
     <rPh sb="0" eb="1">
       <t>fei'yog</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂商账单数据校验(逻辑)</t>
-    <rPh sb="0" eb="1">
-      <t>chang'shang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhang'dan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jiao'yan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>luo'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2:服务</t>
-    <rPh sb="3" eb="4">
-      <t>fu'wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2372,13 +2274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lx:主体</t>
-    <rPh sb="3" eb="4">
-      <t>zhu'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月份</t>
   </si>
   <si>
@@ -2580,13 +2475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实例ID</t>
-    <rPh sb="0" eb="1">
-      <t>shi'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
       <t>yong'linag</t>
@@ -2625,10 +2513,6 @@
     <rPh sb="2" eb="3">
       <t>zhu'zhang'hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新购</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2667,13 +2551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>续费</t>
-    <rPh sb="0" eb="1">
-      <t>xu'fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CDN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2689,10 +2566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>带宽</t>
     <rPh sb="0" eb="1">
       <t>dai'kuan</t>
@@ -2705,10 +2578,6 @@
   </si>
   <si>
     <t>负载均衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2762,10 +2631,6 @@
   </si>
   <si>
     <t>bj-f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2884,10 +2749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类</t>
     <rPh sb="0" eb="1">
       <t>fen'lei</t>
@@ -2919,9 +2780,257 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ICSP计费</t>
+    <t>账单数据校验(逻辑)</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao'yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单环比分析(时间)</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan'bi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立计费对比(空间)</t>
+    <rPh sb="0" eb="1">
+      <t>du'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'fei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'bi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kong'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云产品计费模型，由六个要素、三个数据项构成，六个要素是账号、产品、子产品、实例、计费项、地域，三个数据项是单价、用量、费用</t>
+    <rPh sb="0" eb="1">
+      <t>yun'chan'pin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'fei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liu'ge</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yao'su</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shu'ju'xiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gou'cheng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>liu'ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yao'su</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhang'hao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zi'chan'pin</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shi'li</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ji'fei'xinag</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>di'yu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shu'ju'xiang</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>dan'jia</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yong'liang</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>fei'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例</t>
+    <rPh sb="0" eb="1">
+      <t>shi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <rPh sb="0" eb="1">
+      <t>qu'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chnag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <rPh sb="0" eb="1">
+      <t>gui'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公网下行流量</t>
+    <rPh sb="0" eb="1">
+      <t>gong'wang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj-f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付费</t>
+    <rPh sb="0" eb="1">
+      <t>yu'fu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICSP计费（剔除商务差异、回归纯技术视角）</t>
     <rPh sb="4" eb="5">
       <t>ji'fei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cha'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui'gui</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chun'ji'shu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi'jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1:账号</t>
+    <rPh sb="3" eb="4">
+      <t>zhang'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2:产品</t>
+    <rPh sb="3" eb="4">
+      <t>hcan'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3:子产品</t>
+    <rPh sb="3" eb="4">
+      <t>zi'chan'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4:实例</t>
+    <rPh sb="3" eb="4">
+      <t>shi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5:计费项</t>
+    <rPh sb="3" eb="4">
+      <t>ji'fei'xinag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6:地域</t>
+    <rPh sb="3" eb="4">
+      <t>di'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0:账期</t>
+    <rPh sb="3" eb="4">
+      <t>zhang'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3164,7 +3273,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3194,8 +3303,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3245,6 +3358,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3260,34 +3397,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3296,26 +3418,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -3331,6 +3445,8 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3345,6 +3461,8 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3619,303 +3737,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="3" max="12" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3934,330 +3755,330 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="44"/>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4273,7 +4094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
@@ -4307,44 +4128,44 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="37" t="s">
-        <v>87</v>
+      <c r="B3" s="45" t="s">
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F3" s="19">
         <v>44848</v>
@@ -4357,21 +4178,21 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="38"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="F4" s="20">
         <v>44848</v>
@@ -4388,14 +4209,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="37" t="s">
-        <v>94</v>
+      <c r="B5" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="19">
@@ -4409,21 +4230,21 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F6" s="21">
         <v>44849</v>
@@ -4440,15 +4261,15 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="39"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F7" s="21">
         <v>44850</v>
@@ -4461,18 +4282,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="21">
@@ -4486,18 +4307,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="21">
@@ -4511,18 +4332,18 @@
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="21">
@@ -4536,21 +4357,21 @@
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="38"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11" s="20">
         <v>44851</v>
@@ -4563,23 +4384,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="37" t="s">
-        <v>103</v>
+      <c r="B12" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="F12" s="19">
         <v>44851</v>
@@ -4596,15 +4417,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F13" s="21">
         <v>44851</v>
@@ -4617,21 +4438,21 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14" s="20">
         <v>44851</v>
@@ -4644,23 +4465,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F15" s="19">
         <v>44852</v>
@@ -4673,21 +4494,21 @@
         <v>3</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F16" s="21">
         <v>44855</v>
@@ -4700,18 +4521,18 @@
         <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="21">
@@ -4729,12 +4550,12 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="21">
@@ -4752,15 +4573,15 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F19" s="21">
         <v>44859</v>
@@ -4773,18 +4594,18 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="21">
@@ -4798,21 +4619,21 @@
         <v>2</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F21" s="21">
         <v>44862</v>
@@ -4825,21 +4646,21 @@
         <v>3</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F22" s="20">
         <v>44865</v>
@@ -4856,17 +4677,17 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="37" t="s">
-        <v>122</v>
+      <c r="B23" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F23" s="19">
         <v>44866</v>
@@ -4879,21 +4700,21 @@
         <v>20</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F24" s="21">
         <v>44885</v>
@@ -4910,12 +4731,12 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20">
@@ -4933,14 +4754,14 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="37" t="s">
-        <v>129</v>
+      <c r="B26" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="19">
@@ -4954,21 +4775,21 @@
         <v>6</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="39"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F27" s="21">
         <v>44893</v>
@@ -4981,21 +4802,21 @@
         <v>34</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="38"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F28" s="20">
         <v>44926</v>
@@ -5012,14 +4833,14 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="37" t="s">
-        <v>134</v>
+      <c r="B29" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="19">
@@ -5033,18 +4854,18 @@
         <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="38"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20">
@@ -5609,15 +5430,335 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5627,34 +5768,36 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" customWidth="1"/>
+    <col min="24" max="24" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+    <row r="1" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="49" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="49"/>
@@ -5665,159 +5808,169 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
       <c r="O1" s="49"/>
-      <c r="P1" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-    </row>
-    <row r="2" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="44" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+    </row>
+    <row r="2" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="44" t="s">
+      <c r="U2" s="51"/>
+      <c r="V2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="W2" s="50"/>
+      <c r="X2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="54" t="s">
+      <c r="Y2" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="55" t="s">
+      <c r="J3" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="M3" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="P3" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3" s="43" t="s">
+      <c r="Q3" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="U3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="43" t="s">
+      <c r="V3" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="S3" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y3" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>202301</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I4" s="30">
         <v>10000</v>
@@ -5826,72 +5979,78 @@
         <v>1</v>
       </c>
       <c r="K4" s="30">
-        <f>I4*J4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="30">
+        <f>I4*J4*K4</f>
         <v>10000</v>
       </c>
-      <c r="L4" t="s">
-        <v>211</v>
-      </c>
       <c r="M4" t="s">
-        <v>212</v>
-      </c>
-      <c r="N4" s="30">
+        <v>254</v>
+      </c>
+      <c r="N4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="30">
         <v>10</v>
       </c>
-      <c r="O4" s="30">
-        <f>K4-N4</f>
+      <c r="P4" s="30">
+        <f>L4-O4</f>
         <v>9990</v>
       </c>
-      <c r="P4" t="s">
-        <v>243</v>
-      </c>
       <c r="Q4" t="s">
-        <v>245</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>257</v>
+        <v>228</v>
+      </c>
+      <c r="R4" t="s">
+        <v>230</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="T4" s="30">
+        <v>241</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="U4" s="30">
         <v>700</v>
       </c>
-      <c r="U4" s="30">
+      <c r="V4" s="30">
         <v>16</v>
       </c>
-      <c r="V4" s="30">
-        <f>T4*U4</f>
+      <c r="W4" s="30">
+        <v>1</v>
+      </c>
+      <c r="X4" s="30">
+        <f>U4*V4</f>
         <v>11200</v>
       </c>
-      <c r="W4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>202301</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="I5" s="30">
         <v>5000</v>
@@ -5900,72 +6059,78 @@
         <v>1</v>
       </c>
       <c r="K5" s="30">
-        <f>I5*J5</f>
-        <v>5000</v>
-      </c>
-      <c r="L5" t="s">
-        <v>217</v>
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" ref="L5:L9" si="0">I5*J5*K5</f>
+        <v>1000</v>
       </c>
       <c r="M5" t="s">
-        <v>212</v>
-      </c>
-      <c r="N5" s="30">
+        <v>255</v>
+      </c>
+      <c r="N5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="30">
         <v>1</v>
       </c>
-      <c r="O5" s="30">
-        <f>K5-N5</f>
-        <v>4999</v>
-      </c>
-      <c r="P5" t="s">
-        <v>243</v>
+      <c r="P5" s="30">
+        <f>L5-O5</f>
+        <v>999</v>
       </c>
       <c r="Q5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>256</v>
+        <v>228</v>
+      </c>
+      <c r="R5" t="s">
+        <v>230</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="T5" s="30">
+        <v>240</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="U5" s="30">
         <v>350</v>
       </c>
-      <c r="U5" s="30">
+      <c r="V5" s="30">
         <v>16</v>
       </c>
-      <c r="V5" s="30">
-        <f t="shared" ref="V5:V9" si="0">T5*U5</f>
+      <c r="W5" s="30">
+        <v>1</v>
+      </c>
+      <c r="X5" s="30">
+        <f t="shared" ref="X5:X9" si="1">U5*V5</f>
         <v>5600</v>
       </c>
-      <c r="W5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>202301</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I6" s="30">
         <v>0.1</v>
@@ -5974,73 +6139,79 @@
         <v>2048</v>
       </c>
       <c r="K6" s="30">
-        <f>I6*J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" si="0"/>
         <v>204.8</v>
       </c>
-      <c r="L6" t="s">
-        <v>220</v>
-      </c>
       <c r="M6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N6" s="30">
+        <v>208</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" s="30">
         <v>0</v>
       </c>
-      <c r="O6" s="30">
-        <f>K6-N6</f>
+      <c r="P6" s="30">
+        <f>L6-O6</f>
         <v>204.8</v>
       </c>
-      <c r="P6" t="s">
-        <v>244</v>
-      </c>
       <c r="Q6" t="s">
-        <v>244</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>256</v>
+        <v>229</v>
+      </c>
+      <c r="R6" t="s">
+        <v>229</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="T6" s="30">
+        <v>240</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="U6" s="30">
         <v>0.1</v>
       </c>
-      <c r="U6" s="30">
-        <f>J6</f>
-        <v>2048</v>
-      </c>
       <c r="V6" s="30">
-        <f t="shared" si="0"/>
-        <v>204.8</v>
-      </c>
-      <c r="W6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <f>K6</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="30">
+        <v>1</v>
+      </c>
+      <c r="X6" s="30">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>202301</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I7" s="30">
         <v>0.1</v>
@@ -6049,73 +6220,79 @@
         <v>0</v>
       </c>
       <c r="K7" s="30">
-        <f>I7*J7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>220</v>
-      </c>
       <c r="M7" t="s">
-        <v>220</v>
-      </c>
-      <c r="N7" s="30">
+        <v>208</v>
+      </c>
+      <c r="N7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O7" s="30">
         <v>0</v>
       </c>
-      <c r="O7" s="30">
-        <f>K7-N7</f>
+      <c r="P7" s="30">
+        <f>L7-O7</f>
         <v>0</v>
       </c>
-      <c r="P7" t="s">
-        <v>244</v>
-      </c>
       <c r="Q7" t="s">
-        <v>244</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>257</v>
+        <v>229</v>
+      </c>
+      <c r="R7" t="s">
+        <v>229</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="T7" s="30">
+        <v>241</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="U7" s="30">
         <v>0.1</v>
       </c>
-      <c r="U7" s="30">
-        <f t="shared" ref="U7:U9" si="1">J7</f>
-        <v>0</v>
-      </c>
       <c r="V7" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V7:V9" si="2">K7</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="30">
+        <v>1</v>
+      </c>
+      <c r="X7" s="30">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>202301</v>
       </c>
       <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" t="s">
-        <v>223</v>
-      </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I8" s="30">
         <v>0.8</v>
@@ -6124,73 +6301,79 @@
         <v>1000</v>
       </c>
       <c r="K8" s="30">
-        <f>I8*J8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="L8" t="s">
-        <v>220</v>
-      </c>
       <c r="M8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N8" s="30">
+        <v>208</v>
+      </c>
+      <c r="N8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O8" s="30">
         <v>1</v>
       </c>
-      <c r="O8" s="30">
-        <f t="shared" ref="O8:O9" si="2">K8-N8</f>
+      <c r="P8" s="30">
+        <f t="shared" ref="P8:P9" si="3">L8-O8</f>
         <v>799</v>
       </c>
-      <c r="P8" t="s">
-        <v>222</v>
-      </c>
       <c r="Q8" t="s">
-        <v>246</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>256</v>
+        <v>209</v>
+      </c>
+      <c r="R8" t="s">
+        <v>231</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="T8" s="30">
+        <v>240</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="U8" s="30">
         <v>1</v>
       </c>
-      <c r="U8" s="30">
+      <c r="V8" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="30">
+        <v>1</v>
+      </c>
+      <c r="X8" s="30">
         <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="V8" s="30">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="W8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202301</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I9" s="30">
         <v>0.8</v>
@@ -6199,59 +6382,68 @@
         <v>1024</v>
       </c>
       <c r="K9" s="30">
-        <f>I9*J9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="30">
+        <f t="shared" si="0"/>
         <v>819.2</v>
       </c>
-      <c r="L9" t="s">
-        <v>220</v>
-      </c>
       <c r="M9" t="s">
-        <v>220</v>
-      </c>
-      <c r="N9" s="30">
+        <v>208</v>
+      </c>
+      <c r="N9" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" s="30">
         <v>2</v>
       </c>
-      <c r="O9" s="30">
+      <c r="P9" s="30">
+        <f t="shared" si="3"/>
+        <v>817.2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" t="s">
+        <v>209</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="U9" s="30">
+        <v>1</v>
+      </c>
+      <c r="V9" s="30">
         <f t="shared" si="2"/>
-        <v>817.2</v>
-      </c>
-      <c r="P9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>222</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="T9" s="30">
         <v>1</v>
       </c>
-      <c r="U9" s="30">
+      <c r="W9" s="30">
+        <v>1</v>
+      </c>
+      <c r="X9" s="30">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="V9" s="30">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="W9" t="s">
-        <v>249</v>
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6262,8 +6454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6276,57 +6468,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H2" s="30">
         <v>0.51</v>
@@ -6341,25 +6533,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H3" s="30">
         <v>0.01</v>
@@ -6374,25 +6566,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H4" s="30">
         <v>0.04</v>
@@ -6407,25 +6599,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H5" s="30">
         <v>0.02</v>
@@ -6440,25 +6632,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H6" s="30">
         <v>0.7</v>
@@ -6473,25 +6665,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H7" s="30">
         <v>0.7</v>
@@ -6506,25 +6698,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H8" s="30">
         <v>1.63</v>
@@ -6539,25 +6731,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H9" s="30">
         <v>1.63</v>
@@ -6572,25 +6764,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
         <v>186</v>
       </c>
-      <c r="C10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" t="s">
-        <v>195</v>
-      </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H10" s="30">
         <v>6.97</v>
@@ -6605,25 +6797,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" t="s">
-        <v>198</v>
-      </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H11" s="30">
         <v>190.49</v>
@@ -6638,25 +6830,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H12" s="30">
         <v>187.34</v>
@@ -6671,25 +6863,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H13" s="30">
         <v>21.75</v>
@@ -6704,25 +6896,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H14" s="30">
         <v>13.75</v>
@@ -6737,25 +6929,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H15" s="30">
         <v>60.07</v>
@@ -6770,25 +6962,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H16" s="30">
         <v>50.39</v>

--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="财务流程" sheetId="3" r:id="rId1"/>
@@ -1263,26 +1263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摸清战略</t>
-    <rPh sb="0" eb="1">
-      <t>mo'qing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhan'lue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐排期</t>
-    <rPh sb="0" eb="1">
-      <t>dui'qi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核对基线</t>
     <rPh sb="0" eb="1">
       <t>h'dui</t>
@@ -1422,19 +1402,6 @@
   </si>
   <si>
     <t>预算接口人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答疑，补全授权</t>
-    <rPh sb="0" eb="1">
-      <t>da'yi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'quan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shou'quan</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1767,42 +1734,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确定粗略的预算目标，同步给预算接口人、以减少预算调整轮次</t>
-    <rPh sb="10" eb="11">
-      <t>tong'bu'gei</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jie'kou'ren</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>jian'shao</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>lun'ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步骤: 拟定列表 → T1确认 → 更新元数据 → 小窗通知接口人</t>
     <rPh sb="0" eb="1">
       <t>bu'zhou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基线报表使用频率较低，要提前验一下可用性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3031,6 +2966,35 @@
     <t>L0:账期</t>
     <rPh sb="3" eb="4">
       <t>zhang'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸清战略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐排期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定粗略的预算目标，同步给预算接口人、以减少预算调整轮次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线报表使用频率较低，要提前验一下可用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答疑，更新授权</t>
+    <rPh sb="0" eb="1">
+      <t>da'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'quan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3382,9 +3346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3397,16 +3362,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3424,10 +3386,12 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3782,7 +3746,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
@@ -3799,7 +3763,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="47"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3817,7 +3781,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
@@ -3837,7 +3801,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -3855,7 +3819,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -3870,7 +3834,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -3890,7 +3854,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -3973,7 +3937,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
@@ -3993,7 +3957,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="47"/>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -4011,7 +3975,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
@@ -4028,7 +3992,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="47"/>
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -4098,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4140,22 +4104,22 @@
         <v>87</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4178,13 +4142,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="9" t="s">
         <v>85</v>
       </c>
@@ -4209,16 +4173,18 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F5" s="19">
         <v>44849</v>
       </c>
@@ -4229,23 +4195,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="I5" s="8"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="11" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>88</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="21">
         <v>44849</v>
       </c>
@@ -4256,17 +4218,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>89</v>
@@ -4282,18 +4246,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="21">
@@ -4307,18 +4271,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="21">
@@ -4332,18 +4296,18 @@
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="21">
@@ -4357,21 +4321,21 @@
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="20">
         <v>44851</v>
@@ -4384,23 +4348,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="45" t="s">
-        <v>99</v>
+      <c r="B12" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="19">
         <v>44851</v>
@@ -4417,15 +4381,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="21">
         <v>44851</v>
@@ -4438,18 +4402,18 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>89</v>
@@ -4465,23 +4429,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F15" s="19">
         <v>44852</v>
@@ -4494,21 +4458,21 @@
         <v>3</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="F16" s="21">
         <v>44855</v>
@@ -4521,18 +4485,18 @@
         <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="47"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="21">
@@ -4550,12 +4514,12 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="21">
@@ -4573,15 +4537,15 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F19" s="21">
         <v>44859</v>
@@ -4594,18 +4558,18 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="21">
@@ -4619,21 +4583,21 @@
         <v>2</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F21" s="21">
         <v>44862</v>
@@ -4646,18 +4610,18 @@
         <v>3</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>88</v>
@@ -4677,14 +4641,14 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
@@ -4700,21 +4664,21 @@
         <v>20</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="47"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F24" s="21">
         <v>44885</v>
@@ -4731,9 +4695,9 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="46"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>88</v>
@@ -4754,11 +4718,11 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="45" t="s">
-        <v>125</v>
+      <c r="B26" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>88</v>
@@ -4775,21 +4739,21 @@
         <v>6</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="47"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F27" s="21">
         <v>44893</v>
@@ -4802,18 +4766,18 @@
         <v>34</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>88</v>
@@ -4833,14 +4797,14 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="45" t="s">
-        <v>130</v>
+      <c r="B29" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="19">
@@ -4854,15 +4818,15 @@
         <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="46"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>88</v>
@@ -5434,7 +5398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -5463,22 +5427,22 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="C2" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5497,7 +5461,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>0</v>
@@ -5519,15 +5483,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
@@ -5536,7 +5500,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>6</v>
@@ -5546,9 +5510,9 @@
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -5557,7 +5521,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>7</v>
@@ -5565,11 +5529,11 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -5578,17 +5542,17 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="23" t="s">
         <v>7</v>
       </c>
@@ -5599,15 +5563,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="58"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="24"/>
@@ -5616,19 +5580,19 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="25"/>
@@ -5643,15 +5607,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="59"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="23"/>
@@ -5675,7 +5639,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -5692,7 +5656,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -5709,7 +5673,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -5789,162 +5753,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="A1" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
     </row>
     <row r="2" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
-      <c r="B2" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="53" t="s">
+      <c r="B2" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="56" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="56"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51" t="s">
+      <c r="M2" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="50" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="50"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="P3" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>203</v>
-      </c>
       <c r="Q3" s="34" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="U3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="X3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5952,25 +5916,25 @@
         <v>202301</v>
       </c>
       <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
-      </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I4" s="30">
         <v>10000</v>
@@ -5986,10 +5950,10 @@
         <v>10000</v>
       </c>
       <c r="M4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O4" s="30">
         <v>10</v>
@@ -5999,16 +5963,16 @@
         <v>9990</v>
       </c>
       <c r="Q4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="U4" s="30">
         <v>700</v>
@@ -6024,7 +5988,7 @@
         <v>11200</v>
       </c>
       <c r="Y4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -6032,25 +5996,25 @@
         <v>202301</v>
       </c>
       <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
         <v>200</v>
       </c>
-      <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>205</v>
-      </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I5" s="30">
         <v>5000</v>
@@ -6066,10 +6030,10 @@
         <v>1000</v>
       </c>
       <c r="M5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O5" s="30">
         <v>1</v>
@@ -6079,16 +6043,16 @@
         <v>999</v>
       </c>
       <c r="Q5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="U5" s="30">
         <v>350</v>
@@ -6104,7 +6068,7 @@
         <v>5600</v>
       </c>
       <c r="Y5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -6112,25 +6076,25 @@
         <v>202301</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I6" s="30">
         <v>0.1</v>
@@ -6146,10 +6110,10 @@
         <v>204.8</v>
       </c>
       <c r="M6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O6" s="30">
         <v>0</v>
@@ -6159,16 +6123,16 @@
         <v>204.8</v>
       </c>
       <c r="Q6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="U6" s="30">
         <v>0.1</v>
@@ -6185,7 +6149,7 @@
         <v>0.1</v>
       </c>
       <c r="Y6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -6193,25 +6157,25 @@
         <v>202301</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I7" s="30">
         <v>0.1</v>
@@ -6227,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O7" s="30">
         <v>0</v>
@@ -6240,16 +6204,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="U7" s="30">
         <v>0.1</v>
@@ -6266,7 +6230,7 @@
         <v>0.1</v>
       </c>
       <c r="Y7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -6274,25 +6238,25 @@
         <v>202301</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I8" s="30">
         <v>0.8</v>
@@ -6308,10 +6272,10 @@
         <v>800</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O8" s="30">
         <v>1</v>
@@ -6321,16 +6285,16 @@
         <v>799</v>
       </c>
       <c r="Q8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="U8" s="30">
         <v>1</v>
@@ -6347,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -6355,25 +6319,25 @@
         <v>202301</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I9" s="30">
         <v>0.8</v>
@@ -6389,10 +6353,10 @@
         <v>819.2</v>
       </c>
       <c r="M9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O9" s="30">
         <v>2</v>
@@ -6402,16 +6366,16 @@
         <v>817.2</v>
       </c>
       <c r="Q9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="T9" s="30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="U9" s="30">
         <v>1</v>
@@ -6428,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6468,57 +6432,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>160</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H2" s="30">
         <v>0.51</v>
@@ -6533,25 +6497,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H3" s="30">
         <v>0.01</v>
@@ -6566,25 +6530,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H4" s="30">
         <v>0.04</v>
@@ -6599,25 +6563,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H5" s="30">
         <v>0.02</v>
@@ -6632,25 +6596,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H6" s="30">
         <v>0.7</v>
@@ -6665,25 +6629,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H7" s="30">
         <v>0.7</v>
@@ -6698,25 +6662,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H8" s="30">
         <v>1.63</v>
@@ -6731,25 +6695,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H9" s="30">
         <v>1.63</v>
@@ -6764,25 +6728,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H10" s="30">
         <v>6.97</v>
@@ -6797,25 +6761,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H11" s="30">
         <v>190.49</v>
@@ -6830,25 +6794,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H12" s="30">
         <v>187.34</v>
@@ -6863,25 +6827,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H13" s="30">
         <v>21.75</v>
@@ -6896,25 +6860,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H14" s="30">
         <v>13.75</v>
@@ -6929,25 +6893,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" t="s">
         <v>179</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>184</v>
       </c>
-      <c r="C15" t="s">
-        <v>189</v>
-      </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H15" s="30">
         <v>60.07</v>
@@ -6962,25 +6926,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H16" s="30">
         <v>50.39</v>

--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="275">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -1195,16 +1195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司启动会</t>
-    <rPh sb="0" eb="1">
-      <t>gong'si</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'dong'hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开启动会</t>
     <rPh sb="0" eb="1">
       <t>kai</t>
@@ -1253,35 +1243,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运维准备</t>
-    <rPh sb="0" eb="1">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhun'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核对基线</t>
     <rPh sb="0" eb="1">
       <t>h'dui</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ji'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新预算接口人</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'kou'ren</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,16 +1289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务、大数据</t>
-    <rPh sb="0" eb="1">
-      <t>cai'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产研启动会</t>
     <rPh sb="0" eb="1">
       <t>chan'yan</t>
@@ -1368,19 +1325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建立沟通渠道</t>
-    <rPh sb="0" eb="1">
-      <t>jian'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qu'dao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改接口人</t>
     <rPh sb="0" eb="1">
       <t>xiu'gai</t>
@@ -1402,19 +1346,6 @@
   </si>
   <si>
     <t>预算接口人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产研预算提报</t>
-    <rPh sb="0" eb="1">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti'bao</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1442,19 +1373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商分出预测</t>
-    <rPh sb="0" eb="1">
-      <t>shang'fen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu'ce</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研发做预算</t>
     <rPh sb="0" eb="1">
       <t>yan'fa</t>
@@ -1468,12 +1386,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研发录入预算</t>
-    <rPh sb="0" eb="1">
-      <t>yan'fa</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lu'ru</t>
+    <t>关闭预算平台</t>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ping'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司预算分人力、资源、定制产品等，本文重点关注资源预算</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dign'zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ben'wen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhong'dian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu'sua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研核对预算</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'dui</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>yu'suan</t>
@@ -1481,224 +1449,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭预算平台</t>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ping'tai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新业务分摊比例</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fen'tan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bi'il</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-1(FinOps主管)</t>
-    <rPh sb="10" eb="11">
-      <t>zhu'guan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>guan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提报预算给财务</t>
-    <rPh sb="0" eb="1">
-      <t>ti'bao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>cai'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产研预算合并</t>
-    <rPh sb="4" eb="5">
-      <t>he'bing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司预算分人力、资源、定制产品等，本文重点关注资源预算</t>
-    <rPh sb="0" eb="1">
-      <t>gong'si</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren'li</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dign'zhi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ben'wen</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zhong'dian</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zi'yuan</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yu'sua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产研核对预算</t>
-    <rPh sb="0" eb="1">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he'dui</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运维主管核对预算</t>
-    <rPh sb="0" eb="1">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'guan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>he'dui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>y'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务合并预算</t>
-    <rPh sb="0" eb="1">
-      <t>cai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he'bing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产研预算定稿</t>
-    <rPh sb="0" eb="1">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ding'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团预算合并</t>
-    <rPh sb="0" eb="1">
-      <t>ji'tuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>he'bing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团核对预算</t>
-    <rPh sb="0" eb="1">
-      <t>ji'tuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he'dui</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务、CTO</t>
-    <rPh sb="0" eb="1">
-      <t>cai'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团预算定稿</t>
-    <rPh sb="0" eb="1">
-      <t>ji'tuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ding'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团预算生效</t>
-    <rPh sb="0" eb="1">
-      <t>ji'tuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>sheng'xiao</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1721,26 +1476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产研预算生效</t>
-    <rPh sb="0" eb="1">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>sheng'xiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤: 拟定列表 → T1确认 → 更新元数据 → 小窗通知接口人</t>
-    <rPh sb="0" eb="1">
-      <t>bu'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户文档使用频率较低，要提前更新下内容、确保足够新</t>
     <rPh sb="0" eb="1">
       <t>yong'hu</t>
@@ -1778,258 +1513,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查模板、科目名称、预单，清理重复记录，开放时间窗</t>
-    <rPh sb="0" eb="1">
-      <t>jian'cha</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mu'ban</t>
+    <t>预算用量 = Fun(业务指标) + ∑(技术优化)</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按业务方向汇总预算</t>
+    <rPh sb="0" eb="1">
+      <t>an'ye'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'xiang</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>ke'mu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ming'chneg</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yu'dan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>qing'li</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>chong'fu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ji'lu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>kai'fang</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shi'jian'chuang'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟财务、大数据等单位同步排期节奏</t>
-    <rPh sb="0" eb="1">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>cai'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>da'shu'ju</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dan'wei</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jie'zou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-1指定调整预算接口人</t>
-    <rPh sb="3" eb="4">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tiao'zheng</t>
+      <t>hui'zong</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>yu'suan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'kou'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强依赖，必须第一步完成</t>
-    <rPh sb="0" eb="1">
-      <t>qiang'yi'lai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bi'xu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>di'yi'bu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wan'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算用量 = Fun(业务指标) + ∑(技术优化)</t>
-    <rPh sb="0" eb="1">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'liang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>you'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留2-3个工作日</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gong'zuo'ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备全局数据，包括定价、基线、部门&amp;科目分析等</t>
-    <rPh sb="9" eb="10">
-      <t>ding'jia</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ji'xian</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fen'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维汇总预算</t>
-    <rPh sb="0" eb="1">
-      <t>yun'wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hui'zong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>y'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别明显问题，推动接口人调整</t>
-    <rPh sb="0" eb="1">
-      <t>shi'bie</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'ti</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'kou'ren</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>tiao'zheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按业务方向汇总预算</t>
-    <rPh sb="0" eb="1">
-      <t>an'ye'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fang'xiang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hui'zong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTO拉T-1逐一核对预算，会产生多轮次调整</t>
-    <rPh sb="3" eb="4">
-      <t>la</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhu'yi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>he'dui</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>duo'lun'ci</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>tiao'zheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主R财务向CEO汇报预算，会产生多轮次调整</t>
-    <rPh sb="0" eb="1">
-      <t>zhu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cai'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hui'bao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走流程、存档，CEO审批后生效</t>
-    <rPh sb="0" eb="1">
-      <t>zou'liu'cheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cun'dang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>sheng'pi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>sheng'xiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2970,19 +2487,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摸清战略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对齐排期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定粗略的预算目标，同步给预算接口人、以减少预算调整轮次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基线报表使用频率较低，要提前验一下可用性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2995,6 +2500,641 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>shou'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗拍目标</t>
+    <rPh sb="0" eb="1">
+      <t>cu'pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和财务对齐排期，重点关注产出日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定粗拍目标，按需同步给接口人，以减少调整频次</t>
+    <rPh sb="16" eb="17">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>pin'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新接口人</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线即为最近12个月的成本分摊</t>
+    <rPh sb="2" eb="3">
+      <t>ji'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zui'in</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge'yue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fen'tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查提报模板、科目、预单，清理历史记录，开放时间窗</t>
+    <rPh sb="0" eb="1">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'bao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu'ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke'mu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu'dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qing'li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>li'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>kai'fang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi'jian'chuang'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟大数据等二级中台单位同步排期节奏</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>er'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan'wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级中台</t>
+    <rPh sb="0" eb="1">
+      <t>er'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立沟通渠道</t>
+    <rPh sb="0" eb="1">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-1指定的接口人可能会继续下放一级</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'kou're</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke'nneg</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji'xu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xia'fang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研提报</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商分出预估</t>
+    <rPh sb="0" eb="1">
+      <t>shang'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ch</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、产品</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chan'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强依赖，在研发做预算之前完成</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'yi'lai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新分摊比例</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi'il</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps汇总预算</t>
+    <rPh sb="6" eb="7">
+      <t>hui'zong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>y'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps主管核对</t>
+    <rPh sb="6" eb="7">
+      <t>zhu'guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps主管</t>
+    <rPh sb="6" eb="7">
+      <t>zhu'guan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">识别明显问题，推动接口人调整 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps推动T-1更新业务分摊比例，预留2-3个工作日</t>
+    <rPh sb="6" eb="7">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bi'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu'liu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gong'zuo'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭平台停止更新，防止核对前后的底表变更</t>
+    <rPh sb="0" eb="1">
+      <t>guan'bi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ting'zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'ixn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qian'hou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>di'biao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bian'geng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算费用，产出预算分析报表，FinOps宏观核对</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei'yong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hong'guan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务核对</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务核对预算</t>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算接口人</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps定稿</t>
+    <rPh sb="6" eb="7">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps定稿，提供资源预算数据给财务</t>
+    <rPh sb="6" eb="7">
+      <t>ding'gao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并集团预算</t>
+    <rPh sb="2" eb="3">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团定稿</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务核对预算</t>
+    <rPh sb="2" eb="3">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研定稿</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务定稿</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务定稿</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审阅集团预算</t>
+    <rPh sb="0" eb="1">
+      <t>shen'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团审阅</t>
+    <rPh sb="0" eb="1">
+      <t>ji'tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、CXO</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务BP按业务方向、向CEO汇报预算，产生调整</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'xinag</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui'bao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算生效</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起审批，走流程、存档，CEO审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源预算生效</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤: 拟定列表(沿用上次) → T1确认 → 更新元数据 → 小窗通知接口人</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO代表业务线、压缩T-1部门预算，大规模修改</t>
+    <rPh sb="19" eb="20">
+      <t>da'gui'mo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiu'gia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务初次汇总业务预算，业务产品自助核对，小规模修改</t>
+    <rPh sb="20" eb="21">
+      <t>xiao'gui'mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务定稿前，财务BP宏观分析对口业务预算和收入是否匹配，通常微调</t>
+    <rPh sb="2" eb="3">
+      <t>ding'gao'qian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hong'guan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>he</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tong'chang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>wei'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务启动会</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'dong'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研准备</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhun'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确年度预算的整体排期</t>
+    <rPh sb="0" eb="1">
+      <t>ming'que</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3145,7 +3285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3236,6 +3376,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3272,7 +3432,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3391,6 +3551,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -4060,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4074,7 +4239,7 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -4098,38 +4263,38 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F3" s="19">
         <v>44848</v>
@@ -4142,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -4150,13 +4315,13 @@
       <c r="A4" s="14"/>
       <c r="B4" s="49"/>
       <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="F4" s="20">
         <v>44848</v>
@@ -4165,25 +4330,27 @@
         <v>44848</v>
       </c>
       <c r="H4" s="17">
-        <f t="shared" ref="H4:H69" si="0">IF(G4&lt;&gt;"",G4-F4+1,"")</f>
+        <f t="shared" ref="H4:H71" si="0">IF(G4&lt;&gt;"",G4-F4+1,"")</f>
         <v>1</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="48" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="19">
         <v>44849</v>
@@ -4195,17 +4362,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="50"/>
       <c r="C6" s="11" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="21">
@@ -4219,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -4227,13 +4396,13 @@
       <c r="A7" s="14"/>
       <c r="B7" s="50"/>
       <c r="C7" s="11" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="21">
         <v>44850</v>
@@ -4246,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -4254,10 +4423,10 @@
       <c r="A8" s="14"/>
       <c r="B8" s="50"/>
       <c r="C8" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="21">
@@ -4271,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -4279,10 +4448,10 @@
       <c r="A9" s="14"/>
       <c r="B9" s="50"/>
       <c r="C9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="21">
@@ -4296,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -4304,10 +4473,10 @@
       <c r="A10" s="14"/>
       <c r="B10" s="50"/>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="21">
@@ -4321,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -4329,13 +4498,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="F11" s="20">
         <v>44851</v>
@@ -4348,23 +4517,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="F12" s="19">
         <v>44851</v>
@@ -4383,13 +4552,13 @@
       <c r="A13" s="14"/>
       <c r="B13" s="50"/>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F13" s="21">
         <v>44851</v>
@@ -4402,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -4410,13 +4579,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="49"/>
       <c r="C14" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="20">
         <v>44851</v>
@@ -4429,23 +4598,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="48" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="F15" s="19">
         <v>44852</v>
@@ -4458,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -4466,26 +4635,26 @@
       <c r="A16" s="14"/>
       <c r="B16" s="50"/>
       <c r="C16" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F16" s="21">
         <v>44855</v>
       </c>
       <c r="G16" s="21">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -4493,33 +4662,37 @@
       <c r="A17" s="14"/>
       <c r="B17" s="50"/>
       <c r="C17" s="11" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F17" s="21">
-        <v>44859</v>
+        <v>44857</v>
       </c>
       <c r="G17" s="21">
         <v>44859</v>
       </c>
       <c r="H17" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="12"/>
+        <f t="shared" ref="H17" si="1">IF(G17&lt;&gt;"",G17-F17+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="50"/>
       <c r="C18" s="11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="21">
@@ -4532,33 +4705,33 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="50"/>
       <c r="C19" s="11" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>105</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E19" s="11"/>
       <c r="F19" s="21">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="G19" s="21">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="J19" s="6"/>
     </row>
@@ -4566,259 +4739,259 @@
       <c r="A20" s="14"/>
       <c r="B20" s="50"/>
       <c r="C20" s="11" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="11"/>
+        <v>245</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="F20" s="21">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="G20" s="21">
-        <v>44861</v>
+        <v>44864</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>105</v>
+      <c r="B21" s="49"/>
+      <c r="C21" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F21" s="21">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="G21" s="21">
-        <v>44864</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>140</v>
+        <v>44865</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="20">
-        <v>44865</v>
-      </c>
-      <c r="G22" s="20">
-        <v>44865</v>
-      </c>
-      <c r="H22" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="10"/>
+      <c r="F22" s="19">
+        <v>44866</v>
+      </c>
+      <c r="G22" s="19">
+        <v>44873</v>
+      </c>
+      <c r="H22" s="63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="19">
-        <v>44866</v>
-      </c>
-      <c r="G23" s="19">
-        <v>44885</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="21">
+        <v>44873</v>
+      </c>
+      <c r="G23" s="21">
+        <v>44873</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="12"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="50"/>
       <c r="C24" s="11" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="F24" s="21">
-        <v>44885</v>
+        <v>44874</v>
       </c>
       <c r="G24" s="21">
-        <v>44885</v>
+        <v>44882</v>
       </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>270</v>
+      </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="20">
-        <v>44885</v>
-      </c>
-      <c r="G25" s="20">
-        <v>44885</v>
-      </c>
-      <c r="H25" s="17">
+      <c r="B25" s="50"/>
+      <c r="C25" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="21">
+        <v>44882</v>
+      </c>
+      <c r="G25" s="21">
+        <v>44882</v>
+      </c>
+      <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="19">
-        <v>44887</v>
-      </c>
-      <c r="G26" s="19">
-        <v>44892</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>141</v>
+      <c r="B26" s="50"/>
+      <c r="C26" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="21">
+        <v>44883</v>
+      </c>
+      <c r="G26" s="21">
+        <v>44889</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" ref="H26" si="2">IF(G26&lt;&gt;"",G26-F26+1,"")</f>
+        <v>7</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="21">
-        <v>44893</v>
-      </c>
-      <c r="G27" s="21">
-        <v>44926</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>143</v>
-      </c>
+        <v>44889</v>
+      </c>
+      <c r="G27" s="20">
+        <v>44889</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="10"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="20">
-        <v>44926</v>
-      </c>
-      <c r="G28" s="20">
-        <v>44926</v>
-      </c>
-      <c r="H28" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I28" s="10"/>
+      <c r="B28" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="19">
+        <v>44890</v>
+      </c>
+      <c r="G28" s="19">
+        <v>44892</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="19">
-        <v>44927</v>
-      </c>
-      <c r="G29" s="19">
-        <v>44927</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>144</v>
+      <c r="B29" s="50"/>
+      <c r="C29" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44893</v>
+      </c>
+      <c r="G29" s="21">
+        <v>44920</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -4826,17 +4999,19 @@
       <c r="A30" s="14"/>
       <c r="B30" s="49"/>
       <c r="C30" s="9" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="F30" s="20">
-        <v>44927</v>
+        <v>44920</v>
       </c>
       <c r="G30" s="20">
-        <v>44927</v>
+        <v>44920</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
@@ -4847,125 +5022,165 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I31" s="6"/>
+      <c r="B31" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="19">
+        <v>44921</v>
+      </c>
+      <c r="G31" s="19">
+        <v>44925</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I32" s="6"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20">
+        <v>44926</v>
+      </c>
+      <c r="G32" s="20">
+        <v>44926</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5099,295 +5314,307 @@
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" t="str">
-        <f t="shared" ref="H70:H116" si="1">IF(G70&lt;&gt;"",G70-F70+1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H72:H118" si="3">IF(G72&lt;&gt;"",G72-F72+1,"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H118" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5428,18 +5655,18 @@
       <c r="A2" s="14"/>
       <c r="B2" s="22"/>
       <c r="C2" s="51" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
       <c r="G2" s="51" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="51" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
@@ -5461,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>0</v>
@@ -5483,7 +5710,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="22" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -5500,7 +5727,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="22" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>6</v>
@@ -5521,7 +5748,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>7</v>
@@ -5542,7 +5769,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
@@ -5563,7 +5790,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="22" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -5580,7 +5807,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
@@ -5607,7 +5834,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="22" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
@@ -5639,7 +5866,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="26" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -5656,7 +5883,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -5673,7 +5900,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -5754,14 +5981,14 @@
   <sheetData>
     <row r="1" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
       <c r="F1" s="53" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5774,7 +6001,7 @@
       <c r="O1" s="53"/>
       <c r="P1" s="53"/>
       <c r="Q1" s="54" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
@@ -5788,13 +6015,13 @@
     <row r="2" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="55" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="55" t="s">
@@ -5809,13 +6036,13 @@
         <v>2</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
       <c r="P2" s="57"/>
       <c r="Q2" s="60" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -5831,84 +6058,84 @@
         <v>2</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>242</v>
-      </c>
       <c r="F3" s="36" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="U3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="X3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5916,25 +6143,25 @@
         <v>202301</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
         <v>212</v>
       </c>
-      <c r="F4" t="s">
-        <v>245</v>
-      </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="I4" s="30">
         <v>10000</v>
@@ -5950,10 +6177,10 @@
         <v>10000</v>
       </c>
       <c r="M4" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="N4" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="O4" s="30">
         <v>10</v>
@@ -5963,16 +6190,16 @@
         <v>9990</v>
       </c>
       <c r="Q4" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="R4" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="U4" s="30">
         <v>700</v>
@@ -5988,7 +6215,7 @@
         <v>11200</v>
       </c>
       <c r="Y4" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -5996,25 +6223,25 @@
         <v>202301</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="H5" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="I5" s="30">
         <v>5000</v>
@@ -6030,10 +6257,10 @@
         <v>1000</v>
       </c>
       <c r="M5" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="N5" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="O5" s="30">
         <v>1</v>
@@ -6043,16 +6270,16 @@
         <v>999</v>
       </c>
       <c r="Q5" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="R5" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="U5" s="30">
         <v>350</v>
@@ -6068,7 +6295,7 @@
         <v>5600</v>
       </c>
       <c r="Y5" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -6076,25 +6303,25 @@
         <v>202301</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" t="s">
         <v>214</v>
       </c>
-      <c r="F6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" t="s">
-        <v>247</v>
-      </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="I6" s="30">
         <v>0.1</v>
@@ -6110,10 +6337,10 @@
         <v>204.8</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="N6" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="O6" s="30">
         <v>0</v>
@@ -6123,16 +6350,16 @@
         <v>204.8</v>
       </c>
       <c r="Q6" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="R6" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="U6" s="30">
         <v>0.1</v>
@@ -6149,7 +6376,7 @@
         <v>0.1</v>
       </c>
       <c r="Y6" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -6157,25 +6384,25 @@
         <v>202301</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" t="s">
         <v>214</v>
       </c>
-      <c r="F7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" t="s">
-        <v>247</v>
-      </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="I7" s="30">
         <v>0.1</v>
@@ -6191,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="N7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="O7" s="30">
         <v>0</v>
@@ -6204,16 +6431,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="R7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="U7" s="30">
         <v>0.1</v>
@@ -6230,7 +6457,7 @@
         <v>0.1</v>
       </c>
       <c r="Y7" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -6238,25 +6465,25 @@
         <v>202301</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" t="s">
         <v>215</v>
       </c>
-      <c r="F8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
-      </c>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="I8" s="30">
         <v>0.8</v>
@@ -6272,10 +6499,10 @@
         <v>800</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="N8" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="O8" s="30">
         <v>1</v>
@@ -6285,16 +6512,16 @@
         <v>799</v>
       </c>
       <c r="Q8" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="U8" s="30">
         <v>1</v>
@@ -6311,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -6319,25 +6546,25 @@
         <v>202301</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="I9" s="30">
         <v>0.8</v>
@@ -6353,10 +6580,10 @@
         <v>819.2</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="N9" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="O9" s="30">
         <v>2</v>
@@ -6366,16 +6593,16 @@
         <v>817.2</v>
       </c>
       <c r="Q9" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="T9" s="30" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="U9" s="30">
         <v>1</v>
@@ -6392,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6432,57 +6659,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D1" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>153</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H2" s="30">
         <v>0.51</v>
@@ -6497,25 +6724,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H3" s="30">
         <v>0.01</v>
@@ -6530,25 +6757,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H4" s="30">
         <v>0.04</v>
@@ -6563,25 +6790,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H5" s="30">
         <v>0.02</v>
@@ -6596,25 +6823,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H6" s="30">
         <v>0.7</v>
@@ -6629,25 +6856,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H7" s="30">
         <v>0.7</v>
@@ -6662,25 +6889,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H8" s="30">
         <v>1.63</v>
@@ -6695,25 +6922,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H9" s="30">
         <v>1.63</v>
@@ -6728,25 +6955,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H10" s="30">
         <v>6.97</v>
@@ -6761,25 +6988,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H11" s="30">
         <v>190.49</v>
@@ -6794,25 +7021,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H12" s="30">
         <v>187.34</v>
@@ -6827,25 +7054,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H13" s="30">
         <v>21.75</v>
@@ -6860,25 +7087,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H14" s="30">
         <v>13.75</v>
@@ -6893,25 +7120,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H15" s="30">
         <v>60.07</v>
@@ -6926,25 +7153,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="H16" s="30">
         <v>50.39</v>

--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="财务流程" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="账单模型" sheetId="2" r:id="rId3"/>
     <sheet name="账单详情" sheetId="6" r:id="rId4"/>
     <sheet name="分摊账单" sheetId="5" r:id="rId5"/>
+    <sheet name="二次分摊" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="344">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -3138,6 +3139,522 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>一次分摊</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次分摊</t>
+    <rPh sb="0" eb="1">
+      <t>er'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据</t>
+    <rPh sb="0" eb="1">
+      <t>da'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预单</t>
+    <rPh sb="0" eb="1">
+      <t>yu'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU大数据离线</t>
+    <rPh sb="3" eb="4">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务预单</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU大数据实时</t>
+    <rPh sb="3" eb="4">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据云服务</t>
+    <rPh sb="0" eb="1">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun'fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU数据库</t>
+    <rPh sb="3" eb="4">
+      <t>shu'ju'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库集群</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'ku</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU缓存</t>
+    <rPh sb="3" eb="4">
+      <t>huan'cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Codis/Redis集群</t>
+    <rPh sb="11" eb="12">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器</t>
+    <rPh sb="0" eb="1">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器ZNS</t>
+    <rPh sb="0" eb="1">
+      <t>rong'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有ZNS(宿主)</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>su'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有ZNS(大数据)</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有ZNS(数据库)</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有ZNS(缓存)</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huan'cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群举例</t>
+    <rPh sb="0" eb="1">
+      <t>ji'qun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql/一课售卖-资金账户04-线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis/redis-zbsellfront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emr/tx-emr-common-pangu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doris/tx-doris-sell-sells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alikafka_pre-cn-tl32swlcz00f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象存储</t>
+    <rPh sb="0" eb="1">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有Bucket</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象存储-大数据</t>
+    <rPh sb="5" eb="6">
+      <t>da'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyb-offline-1253445850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象存储-大数据-归档</t>
+    <rPh sb="5" eb="6">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gui'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order.sell-trade.alibjh2-docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据集群</t>
+    <rPh sb="0" eb="1">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <rPh sb="0" eb="1">
+      <t>gong'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专线</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽</t>
+    <rPh sb="0" eb="1">
+      <t>dai'kuna</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyb-nginx-ingress-txbj6-lb/49.233.236.196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务费</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'wu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有大数据云服务集群</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据云服务集群</t>
+    <rPh sb="0" eb="1">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun'fu'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云原生数据库PolarDB/pc-2ze8cl22485o2br72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享CDN域名(非标)</t>
+    <rPh sb="0" eb="1">
+      <t>gong'xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu'ming</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN域名</t>
+    <rPh sb="3" eb="4">
+      <t>yu'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享EIP(网关类)</t>
+    <rPh sb="0" eb="1">
+      <t>gong'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wang'guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN/yy-s.zuoyebang.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有专线实例</t>
+    <rPh sb="0" eb="1">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专线实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专线/tx-bj-kuayun-1</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区网络</t>
+    <rPh sb="0" eb="1">
+      <t>gong'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能中台</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'neng'zhong'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础架构</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu'jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务费</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu'fu'wu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关</t>
+    <rPh sb="0" eb="1">
+      <t>wang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT集群</t>
+    <rPh sb="7" eb="8">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT/m1/xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测</t>
+    <rPh sb="0" eb="1">
+      <t>guan'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播课流媒体</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'bo'ke</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liu'mei'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小众云服务集群</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小众云服务集群</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务/PolarDB/pc-2ze8cl22485o2br72</t>
+    <rPh sb="0" eb="1">
+      <t>yun'fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3147,7 +3664,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3217,6 +3734,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3432,7 +3958,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3510,6 +4036,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3552,10 +4085,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -3911,7 +4445,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
@@ -3928,7 +4462,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="52"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3946,7 +4480,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
@@ -3966,7 +4500,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -3984,7 +4518,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -3999,7 +4533,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -4019,7 +4553,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="52"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -4102,7 +4636,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
@@ -4122,7 +4656,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="52"/>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -4140,7 +4674,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
@@ -4157,7 +4691,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="52"/>
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -4227,7 +4761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -4284,7 +4818,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4313,7 +4847,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="49"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -4340,7 +4874,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="53" t="s">
         <v>273</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4369,7 +4903,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="11" t="s">
         <v>228</v>
       </c>
@@ -4394,7 +4928,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="11" t="s">
         <v>231</v>
       </c>
@@ -4421,7 +4955,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="11" t="s">
         <v>89</v>
       </c>
@@ -4446,7 +4980,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="11" t="s">
         <v>95</v>
       </c>
@@ -4471,7 +5005,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="11" t="s">
         <v>90</v>
       </c>
@@ -4496,7 +5030,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="49"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="9" t="s">
         <v>92</v>
       </c>
@@ -4523,7 +5057,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="53" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4550,7 +5084,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="11" t="s">
         <v>236</v>
       </c>
@@ -4577,7 +5111,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="9" t="s">
         <v>96</v>
       </c>
@@ -4604,7 +5138,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="53" t="s">
         <v>238</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4633,7 +5167,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="50"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="11" t="s">
         <v>102</v>
       </c>
@@ -4660,7 +5194,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="11" t="s">
         <v>242</v>
       </c>
@@ -4687,7 +5221,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="11" t="s">
         <v>103</v>
       </c>
@@ -4712,7 +5246,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="11" t="s">
         <v>243</v>
       </c>
@@ -4737,7 +5271,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="11" t="s">
         <v>244</v>
       </c>
@@ -4764,7 +5298,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="49"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="9" t="s">
         <v>253</v>
       </c>
@@ -4791,7 +5325,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="53" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -4800,7 +5334,7 @@
       <c r="D22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="48" t="s">
         <v>88</v>
       </c>
       <c r="F22" s="19">
@@ -4809,7 +5343,7 @@
       <c r="G22" s="19">
         <v>44873</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4820,8 +5354,8 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="61" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="47" t="s">
         <v>258</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -4843,7 +5377,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="50"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="11" t="s">
         <v>251</v>
       </c>
@@ -4870,7 +5404,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="11" t="s">
         <v>259</v>
       </c>
@@ -4893,7 +5427,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="11" t="s">
         <v>257</v>
       </c>
@@ -4920,7 +5454,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="49"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="9" t="s">
         <v>260</v>
       </c>
@@ -4943,7 +5477,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="53" t="s">
         <v>262</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -4970,7 +5504,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="50"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="11" t="s">
         <v>261</v>
       </c>
@@ -4997,7 +5531,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="49"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="9" t="s">
         <v>256</v>
       </c>
@@ -5022,7 +5556,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="53" t="s">
         <v>265</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -5049,7 +5583,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
-      <c r="B32" s="49"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="9" t="s">
         <v>265</v>
       </c>
@@ -5654,22 +6188,22 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5980,80 +6514,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
     </row>
     <row r="2" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="58" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="60" t="s">
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="59" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60" t="s">
+      <c r="U2" s="64"/>
+      <c r="V2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="60"/>
+      <c r="W2" s="65"/>
       <c r="X2" s="41" t="s">
         <v>2</v>
       </c>
@@ -7188,4 +7722,568 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
+      <c r="B6" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
+      <c r="B11" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67"/>
+      <c r="B16" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
+      <c r="B18" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A15:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="351">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -3184,10 +3184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务预单</t>
     <rPh sb="0" eb="1">
       <t>ye'wu</t>
@@ -3274,46 +3270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有ZNS(宿主)</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>su'zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有ZNS(大数据)</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>da'shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有ZNS(数据库)</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu'ju'ku</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有ZNS(缓存)</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huan'cun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>集群举例</t>
     <rPh sb="0" eb="1">
       <t>ji'qun</t>
@@ -3350,13 +3306,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>cun'chu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有Bucket</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3368,14 +3317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zyb-offline-1253445850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对象存储-大数据-归档</t>
     <rPh sb="5" eb="6">
       <t>da'shu'ju</t>
@@ -3425,14 +3366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zyb-nginx-ingress-txbj6-lb/49.233.236.196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技术服务费</t>
     <rPh sb="0" eb="1">
       <t>ji'shu</t>
@@ -3443,12 +3376,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有大数据云服务集群</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t>大数据云服务集群</t>
+    <rPh sb="0" eb="1">
       <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun'fu'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专线实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专线/tx-bj-kuayun-1</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区网络</t>
+    <rPh sb="0" eb="1">
+      <t>gong'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能中台</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'neng'zhong'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础架构</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu'jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务费</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu'fu'wu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT/m1/xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播课流媒体</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'bo'ke</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liu'mei'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小众云服务集群</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类-大数据云服务</t>
+    <rPh sb="3" eb="4">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类-小众云服务</t>
+    <rPh sb="3" eb="4">
+      <t>xiao'zhong</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>yun</t>
@@ -3456,201 +3479,244 @@
     <rPh sb="6" eb="7">
       <t>fu'wu</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>ji'qun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据云服务集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类-工区网络</t>
+    <rPh sb="3" eb="4">
+      <t>gong'qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wang'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据Bucket</t>
     <rPh sb="0" eb="1">
       <t>da'shu'ju</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>yun'fu'wu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ji'qun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云原生数据库PolarDB/pc-2ze8cl22485o2br72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享CDN域名(非标)</t>
-    <rPh sb="0" eb="1">
-      <t>gong'xiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据ZNS</t>
+    <rPh sb="0" eb="1">
+      <t>da'shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库ZNS</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存ZNS</t>
+    <rPh sb="0" eb="1">
+      <t>huan'cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关EIP</t>
+    <rPh sb="0" eb="1">
+      <t>wang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共CDN域名</t>
+    <rPh sb="0" eb="1">
+      <t>gong'gong</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>yu'ming</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础架构ZNS(观测)</t>
     <rPh sb="8" eb="9">
-      <t>fei'biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDN域名</t>
-    <rPh sb="3" eb="4">
-      <t>yu'ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享EIP(网关类)</t>
-    <rPh sb="0" eb="1">
-      <t>gong'xiang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+      <t>guan'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础架构ZNS(网关)</t>
+    <rPh sb="8" eb="9">
       <t>wang'guan</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>lei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDN/yy-s.zuoyebang.cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有专线实例</t>
-    <rPh sb="0" eb="1">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuan'xian</t>
-    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务/PolarDB/pc-2ze8cl22485o2br72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIGC云服务</t>
+    <rPh sb="4" eb="5">
+      <t>yun'fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIGC云服务集群</t>
+    <rPh sb="4" eb="5">
+      <t>yun'fu'wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测集群</t>
+    <rPh sb="0" eb="1">
+      <t>gaun'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关集群</t>
+    <rPh sb="0" eb="1">
+      <t>wang'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'qun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测/trace/tx</t>
+    <rPh sb="0" eb="1">
+      <t>guan'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关/ingress/ali</t>
+    <rPh sb="0" eb="1">
+      <t>wang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象存储-归档</t>
+    <rPh sb="0" eb="1">
+      <t>dui'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun'chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区网络实例</t>
     <rPh sb="4" eb="5">
       <t>shi'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专线实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专线/tx-bj-kuayun-1</t>
-    <rPh sb="0" eb="1">
+    <t>品类-专线</t>
+    <rPh sb="0" eb="1">
+      <t>pin'lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>zhuan'xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工区网络</t>
-    <rPh sb="0" eb="1">
-      <t>gong'qu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wang'luo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能中台</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'neng'zhong'tai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础架构</t>
-    <rPh sb="0" eb="1">
-      <t>ji'chu'jia'gou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术服务费</t>
-    <rPh sb="0" eb="1">
-      <t>ji'shu'fu'wu'fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatGPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关</t>
-    <rPh sb="0" eb="1">
+    <t>对象存储-大数据/3.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象存储-大数据-归档/1.2%</t>
+    <rPh sb="9" eb="10">
+      <t>gui'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽-网关</t>
+    <rPh sb="0" eb="1">
+      <t>dai'kuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>wang'guan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChatGPT集群</t>
+    <t>集群用量</t>
+    <rPh sb="0" eb="1">
+      <t>ji'qun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预单比例</t>
+    <rPh sb="0" eb="1">
+      <t>yu'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群归属</t>
+  </si>
+  <si>
+    <t>集群归属</t>
+    <rPh sb="0" eb="1">
+      <t>ji'qun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gui'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次分摊方式</t>
+    <rPh sb="0" eb="1">
+      <t>er'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区网络/tx-nj-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDN/yy-s.zuoyebang.cc/2.4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽-网关/21.0.2.1/1.7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类-AIGC云服务</t>
     <rPh sb="7" eb="8">
-      <t>ji'qun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatGPT/m1/xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观测</t>
-    <rPh sb="0" eb="1">
-      <t>guan'ce</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播课流媒体</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'bo'ke</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>liu'mei'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小众云服务集群</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'zhong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yun</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fu'wu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'qun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务集群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小众云服务集群</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云服务/PolarDB/pc-2ze8cl22485o2br72</t>
-    <rPh sb="0" eb="1">
       <t>yun'fu'wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3664,7 +3730,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3748,8 +3814,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3808,6 +3882,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3923,7 +4003,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3957,8 +4037,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4042,7 +4130,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4085,14 +4177,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="41">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -4110,6 +4204,10 @@
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4126,6 +4224,10 @@
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4135,6 +4237,107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5519460" cy="995401"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5634181"/>
+          <a:ext cx="5519460" cy="995401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>关键事项</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1300" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t>①一次分摊完全由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>FinOps</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t>管控，且不重不漏</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t>特别是不重</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t>②二次分摊的集群归属、用量、比例等，由分摊方自主维护、并保障质量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1300"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t>③报表要体现出一次、二次分摊数字，方便分摊方对数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4445,7 +4648,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
@@ -4462,7 +4665,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -4480,7 +4683,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
@@ -4500,7 +4703,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -4518,7 +4721,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -4533,7 +4736,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="54" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -4553,7 +4756,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -4636,7 +4839,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="54" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
@@ -4656,7 +4859,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -4674,7 +4877,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
@@ -4691,7 +4894,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -4818,7 +5021,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4847,7 +5050,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="54"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -4874,7 +5077,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>273</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4903,7 +5106,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="11" t="s">
         <v>228</v>
       </c>
@@ -4928,7 +5131,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="55"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="11" t="s">
         <v>231</v>
       </c>
@@ -4955,7 +5158,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="55"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="11" t="s">
         <v>89</v>
       </c>
@@ -4980,7 +5183,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="55"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="11" t="s">
         <v>95</v>
       </c>
@@ -5005,7 +5208,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="55"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="11" t="s">
         <v>90</v>
       </c>
@@ -5030,7 +5233,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="9" t="s">
         <v>92</v>
       </c>
@@ -5057,7 +5260,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="55" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -5084,7 +5287,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="55"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="11" t="s">
         <v>236</v>
       </c>
@@ -5111,7 +5314,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="9" t="s">
         <v>96</v>
       </c>
@@ -5138,7 +5341,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="55" t="s">
         <v>238</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -5167,7 +5370,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="55"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="11" t="s">
         <v>102</v>
       </c>
@@ -5194,7 +5397,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="55"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="11" t="s">
         <v>242</v>
       </c>
@@ -5221,7 +5424,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="55"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="11" t="s">
         <v>103</v>
       </c>
@@ -5246,7 +5449,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="55"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="11" t="s">
         <v>243</v>
       </c>
@@ -5271,7 +5474,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="55"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="11" t="s">
         <v>244</v>
       </c>
@@ -5298,7 +5501,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="54"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="9" t="s">
         <v>253</v>
       </c>
@@ -5325,7 +5528,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="55" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -5354,7 +5557,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="47" t="s">
         <v>258</v>
       </c>
@@ -5377,7 +5580,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="11" t="s">
         <v>251</v>
       </c>
@@ -5404,7 +5607,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="55"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="11" t="s">
         <v>259</v>
       </c>
@@ -5427,7 +5630,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="55"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="11" t="s">
         <v>257</v>
       </c>
@@ -5454,7 +5657,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="54"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="9" t="s">
         <v>260</v>
       </c>
@@ -5477,7 +5680,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="55" t="s">
         <v>262</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -5504,7 +5707,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="55"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="11" t="s">
         <v>261</v>
       </c>
@@ -5531,7 +5734,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="54"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="9" t="s">
         <v>256</v>
       </c>
@@ -5556,7 +5759,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="55" t="s">
         <v>265</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -5583,7 +5786,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
-      <c r="B32" s="54"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="9" t="s">
         <v>265</v>
       </c>
@@ -6188,22 +6391,22 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -6514,80 +6717,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="59" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
     </row>
     <row r="2" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="60" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="63" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="63"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="65" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="64" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="65" t="s">
+      <c r="U2" s="66"/>
+      <c r="V2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="65"/>
+      <c r="W2" s="67"/>
       <c r="X2" s="41" t="s">
         <v>2</v>
       </c>
@@ -7726,42 +7929,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="66" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
         <v>278</v>
@@ -7774,233 +7975,276 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
-        <v>277</v>
+      <c r="J3" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
+        <v>290</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
+        <v>283</v>
+      </c>
       <c r="B6" s="14" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+        <v>285</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>324</v>
+      </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>342</v>
+      </c>
       <c r="G7" s="14" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="B9" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>284</v>
-      </c>
+      <c r="J9" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
       <c r="B10" s="14" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="I10" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="68"/>
+      <c r="B11" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="68"/>
+      <c r="B12" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>321</v>
+      </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>290</v>
-      </c>
+      <c r="F12" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="68"/>
       <c r="B13" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>292</v>
+        <v>277</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>318</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -8010,280 +8254,285 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>323</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+        <v>341</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
       <c r="B16" s="14" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="68"/>
+      <c r="B18" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="14" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="D18" s="14" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="H21" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="68"/>
+      <c r="B22" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="H22" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="H24" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>336</v>
-      </c>
+      <c r="J24" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/images/20201118/成本管理.xlsx
+++ b/images/20201118/成本管理.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niean/blog/niean.github.io/images/20201118/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9E2456-3BB7-8745-8485-60D7F49CC254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="财务流程" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="分摊账单" sheetId="5" r:id="rId5"/>
     <sheet name="二次分摊" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="359">
   <si>
     <t>用量</t>
     <rPh sb="0" eb="1">
@@ -1244,20 +1245,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核对基线</t>
-    <rPh sb="0" eb="1">
-      <t>h'dui</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放预算平台</t>
-    <rPh sb="0" eb="1">
-      <t>kai'fang</t>
-    </rPh>
+    <t>事项补充说明</t>
+    <rPh sb="0" eb="1">
+      <t>shi'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuo'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向协同</t>
+    <rPh sb="0" eb="1">
+      <t>heng'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发启动邮件</t>
+    <rPh sb="0" eb="1">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qi'dong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改接口人</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算接口人、T-1</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算接口人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商分</t>
+    <rPh sb="0" eb="1">
+      <t>shang'fne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品、预算接口人</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发做预算</t>
+    <rPh sb="0" eb="1">
+      <t>yan'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭预算平台</t>
     <rPh sb="2" eb="3">
       <t>yu'suan</t>
     </rPh>
@@ -1267,136 +1352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事项补充说明</t>
-    <rPh sb="0" eb="1">
-      <t>shi'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'chong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shuo'ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向协同</t>
-    <rPh sb="0" eb="1">
-      <t>heng'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xie'tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产研启动会</t>
-    <rPh sb="0" eb="1">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'dong'hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发启动邮件</t>
-    <rPh sb="0" eb="1">
-      <t>fa</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qi'dong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>you'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核对用户文档</t>
-    <rPh sb="0" eb="1">
-      <t>he'dui</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'dang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改接口人</t>
-    <rPh sb="0" eb="1">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'kou'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算接口人、T-1</t>
-    <rPh sb="0" eb="1">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'kou'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算接口人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinOps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商分</t>
-    <rPh sb="0" eb="1">
-      <t>shang'fne</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品、预算接口人</t>
-    <rPh sb="0" eb="1">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jie'kou'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发做预算</t>
-    <rPh sb="0" eb="1">
-      <t>yan'fa</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭预算平台</t>
-    <rPh sb="2" eb="3">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ping'tai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司预算分人力、资源、定制产品等，本文重点关注资源预算</t>
     <rPh sb="0" eb="1">
       <t>gong'si</t>
@@ -1473,65 +1428,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>xi'tong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户文档使用频率较低，要提前更新下内容、确保足够新</t>
-    <rPh sb="0" eb="1">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wen'dang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'yong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>pin'lv</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jiao'di</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti'qian</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>geng'xin'xia</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>nei'rong</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>que'bao</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>zu'gou'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算用量 = Fun(业务指标) + ∑(技术优化)</t>
-    <rPh sb="0" eb="1">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yong'liang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ji'shu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>you'hua</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2519,115 +2415,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确定粗拍目标，按需同步给接口人，以减少调整频次</t>
-    <rPh sb="16" eb="17">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>jian'shao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>pin'ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新接口人</t>
     <rPh sb="0" eb="1">
       <t>geng'xin</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>jie'kou'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基线即为最近12个月的成本分摊</t>
-    <rPh sb="2" eb="3">
-      <t>ji'wei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zui'in</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ge'yue</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>cheng'ben</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fen'tan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查提报模板、科目、预单，清理历史记录，开放时间窗</t>
-    <rPh sb="0" eb="1">
-      <t>jian'cha</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ti'bao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mu'ban</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ke'mu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yu'dan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>qing'li</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>li'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ji'lu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>kai'fang</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shi'jian'chuang'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟大数据等二级中台单位同步排期节奏</t>
-    <rPh sb="0" eb="1">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>da'shu'ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>er'ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhong'tai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dan'wei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>pai'qi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jie'zou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2658,34 +2451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T-1指定的接口人可能会继续下放一级</t>
-    <rPh sb="3" eb="4">
-      <t>zhi'ding</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jie'kou're</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ke'nneg</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ji'xu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xia'fang</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yi'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产研提报</t>
     <rPh sb="0" eb="1">
       <t>chan'yan</t>
@@ -2753,26 +2518,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>bi'il</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinOps汇总预算</t>
-    <rPh sb="6" eb="7">
-      <t>hui'zong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>y'suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinOps主管核对</t>
-    <rPh sb="6" eb="7">
-      <t>zhu'guan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>he'dui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2787,38 +2532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">识别明显问题，推动接口人调整 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinOps推动T-1更新业务分摊比例，预留2-3个工作日</t>
-    <rPh sb="6" eb="7">
-      <t>tui'dong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fen'tan</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>bi'li</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>yu'liu</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>gong'zuo'ri</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭平台停止更新，防止核对前后的底表变更</t>
     <rPh sb="0" eb="1">
       <t>guan'bi</t>
@@ -2849,22 +2562,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>bian'geng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算费用，产出预算分析报表，FinOps宏观核对</t>
-    <rPh sb="0" eb="1">
-      <t>ji'suan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fei'yong</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>hong'guan</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>he'dui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2886,16 +2583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预算接口人</t>
-    <rPh sb="0" eb="1">
-      <t>yu'suan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'kou'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FinOps定稿</t>
     <rPh sb="6" eb="7">
       <t>ding'gao</t>
@@ -3067,23 +2754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步骤: 拟定列表(沿用上次) → T1确认 → 更新元数据 → 小窗通知接口人</t>
-    <rPh sb="0" eb="1">
-      <t>bu'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTO代表业务线、压缩T-1部门预算，大规模修改</t>
-    <rPh sb="19" eb="20">
-      <t>da'gui'mo</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xiu'gia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>财务初次汇总业务预算，业务产品自助核对，小规模修改</t>
     <rPh sb="20" eb="21">
       <t>xiao'gui'mo</t>
@@ -3110,26 +2780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务启动会</t>
-    <rPh sb="0" eb="1">
-      <t>cai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'dong'hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产研准备</t>
-    <rPh sb="0" eb="1">
-      <t>chan'yan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhun'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明确年度预算的整体排期</t>
     <rPh sb="0" eb="1">
       <t>ming'que</t>
@@ -3718,6 +3368,335 @@
     <t>品类-AIGC云服务</t>
     <rPh sb="7" eb="8">
       <t>yun'fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXO粗拍目标，FinOps同步给接口人，以减少调整频次</t>
+    <rPh sb="16" eb="17">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>pin'ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对文档</t>
+    <rPh sb="0" eb="1">
+      <t>he'dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户文档使用频率较低，要提前核对保鲜</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pin'lv</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao'di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>geng'xin'xia</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>que'bao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zu'gou'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟二级中台单位同步排期节奏</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>da'shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>er'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan'wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pai'qi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产研启动</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'dong'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务启动</t>
+    <rPh sb="0" eb="1">
+      <t>cai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'dong'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps准备(流程)</t>
+    <rPh sb="0" eb="1">
+      <t>chan'yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhun'bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟定列表 → T-1确认 → 更新元数据 → 小窗通知</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-1指定的接口人可能会继续下放权限</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'kou're</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke'nneg</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji'xu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xia'fang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps准备(平台)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新预算模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成基线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放预算窗口</t>
+    <rPh sb="0" eb="1">
+      <t>h'dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新预算平台的预算通知、月份窗口，做一次CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理历史记录，汰换组织预单，更新科目和模板，验证下载和提报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CXO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、FinOps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算用量 = 资源基数 + Fun(业务增长) + ∑(技术优化)</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps推动T-1更新预单到业务的分摊比例，预留2-3个工作日</t>
+    <rPh sb="6" eb="7">
+      <t>tui'dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fen'tan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bi'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu'liu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gong'zuo'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本基线分三组，即某月*12、最近的12个月、本年拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、预算接口人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正基线，大数排查、消除理解性错误(如重复提报)，FinOps无需Diss涨幅</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei'yong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hong'guan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">识别明显涨幅问题，协同技术+财务+业务、推动接口人调整 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务、预算接口人</t>
+    <rPh sb="0" eb="1">
+      <t>yu'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOps核对预算</t>
+    <rPh sb="6" eb="7">
+      <t>hui'zong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>y'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinOp主管核对预算</t>
+    <rPh sb="6" eb="7">
+      <t>zhu'guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he'dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO代表业务线、自驱压缩T1部门预算，大规模修改</t>
+    <rPh sb="19" eb="20">
+      <t>da'gui'mo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiu'gia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3725,12 +3704,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4135,6 +4114,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4183,8 +4164,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4235,6 +4214,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4251,7 +4233,13 @@
     <xdr:ext cx="5519460" cy="995401"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4602,14 +4590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -4619,7 +4607,7 @@
     <col min="6" max="6" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -4627,7 +4615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -4647,8 +4635,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="56" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
@@ -4664,8 +4652,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="56"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -4682,8 +4670,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
@@ -4702,8 +4690,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -4720,8 +4708,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -4735,8 +4723,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -4755,8 +4743,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="56"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -4770,7 +4758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -4798,7 +4786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4818,7 +4806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4838,8 +4826,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
@@ -4858,8 +4846,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="56"/>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -4876,8 +4864,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
@@ -4893,8 +4881,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+    <row r="20" spans="1:6">
+      <c r="A20" s="56"/>
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -4911,7 +4899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -4919,7 +4907,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -4927,22 +4915,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="B29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>70</v>
       </c>
@@ -4961,16 +4949,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
@@ -4979,7 +4967,7 @@
     <col min="9" max="9" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -4991,7 +4979,7 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
         <v>81</v>
@@ -5006,23 +4994,23 @@
         <v>86</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="14"/>
-      <c r="B3" s="55" t="s">
-        <v>272</v>
+      <c r="B3" s="57" t="s">
+        <v>335</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>83</v>
@@ -5044,13 +5032,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="14"/>
-      <c r="B4" s="56"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="9" t="s">
         <v>84</v>
       </c>
@@ -5067,24 +5055,24 @@
         <v>44848</v>
       </c>
       <c r="H4" s="17">
-        <f t="shared" ref="H4:H71" si="0">IF(G4&lt;&gt;"",G4-F4+1,"")</f>
+        <f t="shared" ref="H4:H72" si="0">IF(G4&lt;&gt;"",G4-F4+1,"")</f>
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="14"/>
-      <c r="B5" s="55" t="s">
-        <v>273</v>
+      <c r="B5" s="57" t="s">
+        <v>336</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>87</v>
@@ -5100,20 +5088,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="14"/>
-      <c r="B6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>345</v>
+      </c>
       <c r="F6" s="21">
         <v>44849</v>
       </c>
@@ -5125,18 +5115,18 @@
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="14"/>
-      <c r="B7" s="57"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>88</v>
@@ -5152,70 +5142,76 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="14"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="21">
+      <c r="B8" s="58"/>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="20">
         <v>44850</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>44850</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>232</v>
+      <c r="I8" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="14"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="21">
-        <v>44850</v>
-      </c>
-      <c r="G9" s="21">
-        <v>44850</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="E9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="19">
+        <v>44851</v>
+      </c>
+      <c r="G9" s="19">
+        <v>44851</v>
+      </c>
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>109</v>
-      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="14"/>
-      <c r="B10" s="57"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="11" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="F10" s="21">
         <v>44851</v>
       </c>
@@ -5227,21 +5223,21 @@
         <v>1</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="14"/>
-      <c r="B11" s="56"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="F11" s="20">
         <v>44851</v>
@@ -5254,49 +5250,47 @@
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="14"/>
-      <c r="B12" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="19">
-        <v>44851</v>
-      </c>
-      <c r="G12" s="19">
-        <v>44851</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" si="0"/>
+      <c r="B12" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="21">
+        <v>44850</v>
+      </c>
+      <c r="G12" s="21">
+        <v>44850</v>
+      </c>
+      <c r="H12" s="18">
+        <f>IF(G12&lt;&gt;"",G12-F12+1,"")</f>
         <v>1</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="14"/>
-      <c r="B13" s="57"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="11" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="21">
         <v>44851</v>
       </c>
@@ -5304,527 +5298,537 @@
         <v>44851</v>
       </c>
       <c r="H13" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H13" si="1">IF(G13&lt;&gt;"",G13-F13+1,"")</f>
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="21">
+        <v>44851</v>
+      </c>
+      <c r="G14" s="21">
+        <v>44851</v>
+      </c>
+      <c r="H14" s="18">
+        <f>IF(G14&lt;&gt;"",G14-F14+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="21">
+        <v>44852</v>
+      </c>
+      <c r="G15" s="21">
+        <v>44852</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" ref="H15" si="2">IF(G15&lt;&gt;"",G15-F15+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14"/>
+      <c r="B16" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="9" t="s">
+      <c r="C16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="20">
-        <v>44851</v>
-      </c>
-      <c r="G14" s="20">
-        <v>44851</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="E16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="19">
         <v>44852</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G16" s="19">
         <v>44854</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="I16" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="14"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="D17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="21">
         <v>44855</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G17" s="21">
         <v>44859</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="I17" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="21">
         <v>44857</v>
-      </c>
-      <c r="G17" s="21">
-        <v>44859</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" ref="H17" si="1">IF(G17&lt;&gt;"",G17-F17+1,"")</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="21">
-        <v>44859</v>
       </c>
       <c r="G18" s="21">
         <v>44859</v>
       </c>
       <c r="H18" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="H18" si="3">IF(G18&lt;&gt;"",G18-F18+1,"")</f>
+        <v>3</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="14"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="11" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="21">
-        <v>44860</v>
+        <v>44859</v>
       </c>
       <c r="G19" s="21">
-        <v>44860</v>
+        <v>44859</v>
       </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="14"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="11" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>350</v>
       </c>
       <c r="F20" s="21">
-        <v>44861</v>
+        <v>44860</v>
       </c>
       <c r="G20" s="21">
-        <v>44864</v>
+        <v>44860</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="14"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="21">
+        <v>44860</v>
+      </c>
+      <c r="G21" s="21">
+        <v>44864</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="14"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F22" s="21">
         <v>44865</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G22" s="21">
         <v>44865</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="48" t="s">
+      <c r="I22" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="14"/>
+      <c r="B23" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F23" s="19">
         <v>44866</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G23" s="19">
         <v>44873</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H23" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="21">
+      <c r="I23" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="14"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="21">
         <v>44873</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G24" s="21">
         <v>44873</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="I24" s="12"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="14"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" s="21">
         <v>44874</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G25" s="21">
         <v>44882</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="21">
+      <c r="I25" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="21">
         <v>44882</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G26" s="21">
         <v>44882</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H26" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="14"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="21">
+      <c r="E27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="21">
         <v>44883</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G27" s="21">
         <v>44889</v>
       </c>
-      <c r="H26" s="18">
-        <f t="shared" ref="H26" si="2">IF(G26&lt;&gt;"",G26-F26+1,"")</f>
+      <c r="H27" s="18">
+        <f t="shared" ref="H27" si="4">IF(G27&lt;&gt;"",G27-F27+1,"")</f>
         <v>7</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="I27" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="14"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="21">
+      <c r="E28" s="9"/>
+      <c r="F28" s="21">
         <v>44889</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G28" s="20">
         <v>44889</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="I28" s="10"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="14"/>
+      <c r="B29" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="19">
+      <c r="E29" s="7"/>
+      <c r="F29" s="19">
         <v>44890</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G29" s="19">
         <v>44892</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H29" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F29" s="21">
+      <c r="I29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="14"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="21">
         <v>44893</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="21">
         <v>44920</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="I30" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="14"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="20">
         <v>44920</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G31" s="20">
         <v>44920</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="19">
+      <c r="I31" s="10"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="14"/>
+      <c r="B32" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="19">
         <v>44921</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G32" s="19">
         <v>44925</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="I32" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="14"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="20">
+      <c r="E33" s="9"/>
+      <c r="F33" s="20">
         <v>44926</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G33" s="20">
         <v>44926</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="10" t="s">
+        <v>250</v>
+      </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="14"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -5839,519 +5843,535 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H35" t="str">
+    <row r="35" spans="1:10">
+      <c r="A35" s="14"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8">
       <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8">
       <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8">
       <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8">
       <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8">
       <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8">
       <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8">
       <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8">
       <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8">
       <c r="H57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8">
       <c r="H58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8">
       <c r="H59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8">
       <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8">
       <c r="H61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:8">
       <c r="H62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:8">
       <c r="H63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:8">
       <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:8">
       <c r="H65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:8">
       <c r="H66" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:8">
       <c r="H67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:8">
       <c r="H68" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:8">
       <c r="H69" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:8">
       <c r="H70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:8">
       <c r="H71" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:8">
       <c r="H72" t="str">
-        <f t="shared" ref="H72:H118" si="3">IF(G72&lt;&gt;"",G72-F72+1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:8">
       <c r="H73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H73:H119" si="5">IF(G73&lt;&gt;"",G73-F73+1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:8">
       <c r="H74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:8">
       <c r="H75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:8">
       <c r="H76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:8">
       <c r="H77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:8">
       <c r="H78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:8">
       <c r="H79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:8">
       <c r="H80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8">
       <c r="H81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8">
       <c r="H82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8">
       <c r="H83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8">
       <c r="H84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8">
       <c r="H85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8">
       <c r="H86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8">
       <c r="H87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8">
       <c r="H88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8">
       <c r="H89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8">
       <c r="H90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8">
       <c r="H91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8">
       <c r="H92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8">
       <c r="H93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8">
       <c r="H94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8">
       <c r="H95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8">
       <c r="H96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8">
       <c r="H97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8">
       <c r="H98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8">
       <c r="H99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8">
       <c r="H100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8">
       <c r="H101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8">
       <c r="H102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8">
       <c r="H103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8">
       <c r="H104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8">
       <c r="H105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:8">
       <c r="H106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:8">
       <c r="H107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:8">
       <c r="H108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:8">
       <c r="H109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:8">
       <c r="H110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:8">
       <c r="H111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:8">
       <c r="H112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:8">
       <c r="H113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:8">
       <c r="H114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:8">
       <c r="H115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:8">
       <c r="H116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:8">
       <c r="H117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:8">
       <c r="H118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
+    <row r="119" spans="8:8">
+      <c r="H119" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B31:B32"/>
+  <mergeCells count="8">
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6359,21 +6379,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" customWidth="1"/>
     <col min="3" max="12" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -6388,28 +6408,28 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="14"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="C2" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="14"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
@@ -6425,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>0</v>
@@ -6444,10 +6464,10 @@
       </c>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="14"/>
       <c r="B4" s="22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -6461,10 +6481,10 @@
       <c r="L4" s="22"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="14"/>
       <c r="B5" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>6</v>
@@ -6482,10 +6502,10 @@
       <c r="L5" s="25"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>7</v>
@@ -6503,10 +6523,10 @@
       <c r="L6" s="25"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
@@ -6524,10 +6544,10 @@
       <c r="L7" s="23"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="14"/>
       <c r="B8" s="22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -6541,10 +6561,10 @@
       <c r="L8" s="24"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
@@ -6568,10 +6588,10 @@
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="14"/>
       <c r="B10" s="22" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
@@ -6585,7 +6605,7 @@
       <c r="L10" s="23"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="14"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -6600,10 +6620,10 @@
       <c r="L11" s="29"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="14"/>
       <c r="B12" s="26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -6617,10 +6637,10 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -6634,10 +6654,10 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -6651,7 +6671,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -6679,7 +6699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -6689,7 +6709,7 @@
       <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
@@ -6716,189 +6736,189 @@
     <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-    </row>
-    <row r="2" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="34" customFormat="1">
+      <c r="A1" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+    </row>
+    <row r="2" spans="1:25" s="34" customFormat="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="62" t="s">
+      <c r="B2" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="65" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="66" t="s">
+      <c r="M2" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="66"/>
-      <c r="V2" s="67" t="s">
+      <c r="U2" s="68"/>
+      <c r="V2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="67"/>
+      <c r="W2" s="69"/>
       <c r="X2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="34" customFormat="1">
       <c r="A3" s="36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>165</v>
-      </c>
       <c r="Q3" s="34" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="X3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>202301</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I4" s="30">
         <v>10000</v>
@@ -6914,10 +6934,10 @@
         <v>10000</v>
       </c>
       <c r="M4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O4" s="30">
         <v>10</v>
@@ -6927,16 +6947,16 @@
         <v>9990</v>
       </c>
       <c r="Q4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="R4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U4" s="30">
         <v>700</v>
@@ -6952,33 +6972,33 @@
         <v>11200</v>
       </c>
       <c r="Y4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>202301</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I5" s="30">
         <v>5000</v>
@@ -6994,10 +7014,10 @@
         <v>1000</v>
       </c>
       <c r="M5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O5" s="30">
         <v>1</v>
@@ -7007,16 +7027,16 @@
         <v>999</v>
       </c>
       <c r="Q5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="R5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U5" s="30">
         <v>350</v>
@@ -7032,33 +7052,33 @@
         <v>5600</v>
       </c>
       <c r="Y5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>202301</v>
       </c>
       <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
         <v>162</v>
       </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I6" s="30">
         <v>0.1</v>
@@ -7074,10 +7094,10 @@
         <v>204.8</v>
       </c>
       <c r="M6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O6" s="30">
         <v>0</v>
@@ -7087,16 +7107,16 @@
         <v>204.8</v>
       </c>
       <c r="Q6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="R6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U6" s="30">
         <v>0.1</v>
@@ -7113,33 +7133,33 @@
         <v>0.1</v>
       </c>
       <c r="Y6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>202301</v>
       </c>
       <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
         <v>162</v>
       </c>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I7" s="30">
         <v>0.1</v>
@@ -7155,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O7" s="30">
         <v>0</v>
@@ -7168,16 +7188,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="R7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U7" s="30">
         <v>0.1</v>
@@ -7194,33 +7214,33 @@
         <v>0.1</v>
       </c>
       <c r="Y7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>202301</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I8" s="30">
         <v>0.8</v>
@@ -7236,10 +7256,10 @@
         <v>800</v>
       </c>
       <c r="M8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O8" s="30">
         <v>1</v>
@@ -7249,16 +7269,16 @@
         <v>799</v>
       </c>
       <c r="Q8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="R8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U8" s="30">
         <v>1</v>
@@ -7275,33 +7295,33 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>202301</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I9" s="30">
         <v>0.8</v>
@@ -7317,10 +7337,10 @@
         <v>819.2</v>
       </c>
       <c r="M9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O9" s="30">
         <v>2</v>
@@ -7330,16 +7350,16 @@
         <v>817.2</v>
       </c>
       <c r="Q9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="R9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="T9" s="30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U9" s="30">
         <v>1</v>
@@ -7356,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7379,14 +7399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
@@ -7394,59 +7414,59 @@
     <col min="7" max="10" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="33" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F2" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G2" t="s">
         <v>117</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
       </c>
       <c r="H2" s="30">
         <v>0.51</v>
@@ -7459,27 +7479,27 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H3" s="30">
         <v>0.01</v>
@@ -7492,27 +7512,27 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H4" s="30">
         <v>0.04</v>
@@ -7525,27 +7545,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H5" s="30">
         <v>0.02</v>
@@ -7558,27 +7578,27 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H6" s="30">
         <v>0.7</v>
@@ -7591,27 +7611,27 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H7" s="30">
         <v>0.7</v>
@@ -7624,27 +7644,27 @@
         <v>5.5999999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H8" s="30">
         <v>1.63</v>
@@ -7657,27 +7677,27 @@
         <v>0.1467</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H9" s="30">
         <v>1.63</v>
@@ -7690,27 +7710,27 @@
         <v>0.1467</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H10" s="30">
         <v>6.97</v>
@@ -7723,27 +7743,27 @@
         <v>0.69700000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H11" s="30">
         <v>190.49</v>
@@ -7756,27 +7776,27 @@
         <v>190.49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H12" s="30">
         <v>187.34</v>
@@ -7789,27 +7809,27 @@
         <v>187.34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H13" s="30">
         <v>21.75</v>
@@ -7822,27 +7842,27 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
         <v>145</v>
       </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H14" s="30">
         <v>13.75</v>
@@ -7855,27 +7875,27 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H15" s="30">
         <v>60.07</v>
@@ -7888,27 +7908,27 @@
         <v>60.07</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
         <v>141</v>
       </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H16" s="30">
         <v>50.39</v>
@@ -7928,14 +7948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
@@ -7946,81 +7966,81 @@
     <col min="10" max="10" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21">
       <c r="A2" s="14"/>
-      <c r="B2" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="51"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="G2" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="14" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -8032,65 +8052,65 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
-        <v>283</v>
+    <row r="6" spans="1:10">
+      <c r="A6" s="70" t="s">
+        <v>262</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="70"/>
       <c r="B7" s="14" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -8102,149 +8122,149 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
-        <v>277</v>
+    <row r="9" spans="1:10">
+      <c r="A9" s="70" t="s">
+        <v>256</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="70"/>
+      <c r="B10" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G10" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>301</v>
-      </c>
       <c r="J10" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="70"/>
       <c r="B11" s="14" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="70"/>
       <c r="B12" s="14" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="70"/>
       <c r="B13" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>314</v>
+        <v>256</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>293</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -8256,149 +8276,149 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
-        <v>302</v>
+    <row r="15" spans="1:10">
+      <c r="A15" s="70" t="s">
+        <v>281</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="70"/>
+      <c r="B16" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="68"/>
-      <c r="B16" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="70"/>
       <c r="B17" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>319</v>
+        <v>281</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>298</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="6" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="70"/>
       <c r="B18" s="14" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="6" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>337</v>
-      </c>
       <c r="J18" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="52" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -8410,65 +8430,65 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
-        <v>313</v>
+    <row r="21" spans="1:10">
+      <c r="A21" s="70" t="s">
+        <v>292</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="70"/>
       <c r="B22" s="14" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -8480,37 +8500,37 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>314</v>
+        <v>291</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>293</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="14" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
